--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_202.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_202.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t>TownePlace Suites New Orleans Harvey West Bank</t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>Harvey</t>
   </si>
   <si>
@@ -64,78 +142,6 @@
   </si>
   <si>
     <t>58</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -506,34 +512,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>64264</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70058</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
+      <c r="P1" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -558,76 +583,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="V1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E2" t="n">
+        <v>70058</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="X1" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="H2" t="s">
         <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_202.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_202.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="543">
   <si>
     <t>STR</t>
   </si>
@@ -91,6 +91,1567 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>10/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r624079288-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>40209</t>
+  </si>
+  <si>
+    <t>9798142</t>
+  </si>
+  <si>
+    <t>624079288</t>
+  </si>
+  <si>
+    <t>10/11/2018</t>
+  </si>
+  <si>
+    <t>Feels Like Home!</t>
+  </si>
+  <si>
+    <t>Booked this room for a visit from California with my sister and I to celebrate our birthday and visit her daughter (my niece) away at college (Xavier University). We called a few days ahead of our arrival just to make sure we would be accomadated arriving at 2am via red eye flight and they assured me we would be. 
+When we arrived, they did not have our room available!! REALLY!!!  So I was ready to do battle, tired but ready, armed with my confirmation number and a “Oh no, you’re going to accomadate ME argument” I quickly fumbled through my cell phone ready to retreive confirmations, conversations and proof of prepayment but Jamie the front desk attendant did not need to see any of that. She did not hesitate to upgrade us to an even nicer room than we reserved. It stopped me in my tracks. She didnt need to see my confirmation number or hear my long winded argument, she simply and quickly placed me in a room and we were on our way, just like that!  Now that’s what I call excellent customer care!  Our fault, we’re sorry and here you go... now go night,night! No fuss! 
+Rooms were clean and neat, could use some minor improvements but it was fine overall. Complaining about things so trivial would not be in order at all. 
+Full Kitchen, Good freezer! (don’t you just hate when the freezer doesn’t freeze well?...Booked this room for a visit from California with my sister and I to celebrate our birthday and visit her daughter (my niece) away at college (Xavier University). We called a few days ahead of our arrival just to make sure we would be accomadated arriving at 2am via red eye flight and they assured me we would be. When we arrived, they did not have our room available!! REALLY!!!  So I was ready to do battle, tired but ready, armed with my confirmation number and a “Oh no, you’re going to accomadate ME argument” I quickly fumbled through my cell phone ready to retreive confirmations, conversations and proof of prepayment but Jamie the front desk attendant did not need to see any of that. She did not hesitate to upgrade us to an even nicer room than we reserved. It stopped me in my tracks. She didnt need to see my confirmation number or hear my long winded argument, she simply and quickly placed me in a room and we were on our way, just like that!  Now that’s what I call excellent customer care!  Our fault, we’re sorry and here you go... now go night,night! No fuss! Rooms were clean and neat, could use some minor improvements but it was fine overall. Complaining about things so trivial would not be in order at all. Full Kitchen, Good freezer! (don’t you just hate when the freezer doesn’t freeze well? Put a soda in and 1hr later, it’s still not cold?) Good microwave and stove with oven! This would be the perfect place stay for holidays cause you can make a good holiday dinner in this place! Nice big family sized table and spacious. Nice linens and pillows. There is a laundry room, and food prep room, exercise facility, outdoor pool and bar b que grill. You also can borrow things like umbrellas, crockpots, blenders and whatever else you may need. Free breakfast in the AM and free coffee and tea in the welcome area. Now we did hear the pit-a-patter of little feet all night, which wasn’t really that bad,I mean kids being kids ...no harm in that.So all in all so far, since we’re still here, this is a nice hotel/room and we’re enjoying our stay! Stay tuned for updates if anything changes.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Booked this room for a visit from California with my sister and I to celebrate our birthday and visit her daughter (my niece) away at college (Xavier University). We called a few days ahead of our arrival just to make sure we would be accomadated arriving at 2am via red eye flight and they assured me we would be. 
+When we arrived, they did not have our room available!! REALLY!!!  So I was ready to do battle, tired but ready, armed with my confirmation number and a “Oh no, you’re going to accomadate ME argument” I quickly fumbled through my cell phone ready to retreive confirmations, conversations and proof of prepayment but Jamie the front desk attendant did not need to see any of that. She did not hesitate to upgrade us to an even nicer room than we reserved. It stopped me in my tracks. She didnt need to see my confirmation number or hear my long winded argument, she simply and quickly placed me in a room and we were on our way, just like that!  Now that’s what I call excellent customer care!  Our fault, we’re sorry and here you go... now go night,night! No fuss! 
+Rooms were clean and neat, could use some minor improvements but it was fine overall. Complaining about things so trivial would not be in order at all. 
+Full Kitchen, Good freezer! (don’t you just hate when the freezer doesn’t freeze well?...Booked this room for a visit from California with my sister and I to celebrate our birthday and visit her daughter (my niece) away at college (Xavier University). We called a few days ahead of our arrival just to make sure we would be accomadated arriving at 2am via red eye flight and they assured me we would be. When we arrived, they did not have our room available!! REALLY!!!  So I was ready to do battle, tired but ready, armed with my confirmation number and a “Oh no, you’re going to accomadate ME argument” I quickly fumbled through my cell phone ready to retreive confirmations, conversations and proof of prepayment but Jamie the front desk attendant did not need to see any of that. She did not hesitate to upgrade us to an even nicer room than we reserved. It stopped me in my tracks. She didnt need to see my confirmation number or hear my long winded argument, she simply and quickly placed me in a room and we were on our way, just like that!  Now that’s what I call excellent customer care!  Our fault, we’re sorry and here you go... now go night,night! No fuss! Rooms were clean and neat, could use some minor improvements but it was fine overall. Complaining about things so trivial would not be in order at all. Full Kitchen, Good freezer! (don’t you just hate when the freezer doesn’t freeze well? Put a soda in and 1hr later, it’s still not cold?) Good microwave and stove with oven! This would be the perfect place stay for holidays cause you can make a good holiday dinner in this place! Nice big family sized table and spacious. Nice linens and pillows. There is a laundry room, and food prep room, exercise facility, outdoor pool and bar b que grill. You also can borrow things like umbrellas, crockpots, blenders and whatever else you may need. Free breakfast in the AM and free coffee and tea in the welcome area. Now we did hear the pit-a-patter of little feet all night, which wasn’t really that bad,I mean kids being kids ...no harm in that.So all in all so far, since we’re still here, this is a nice hotel/room and we’re enjoying our stay! Stay tuned for updates if anything changes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r608642935-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>608642935</t>
+  </si>
+  <si>
+    <t>08/20/2018</t>
+  </si>
+  <si>
+    <t>Clean Rooms with a Smile</t>
+  </si>
+  <si>
+    <t>This hotel offer full kitchen Suites with full size refrigerators and sofa beds. The rooms were very clean and the establishment in new and updated. They also offer a nice breakfast and the staff member are friendly and they let you know that they appreciate your business.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r608552780-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>608552780</t>
+  </si>
+  <si>
+    <t>New, Clean, Large Rooms!</t>
+  </si>
+  <si>
+    <t>We got the 2 bedroom 1 bathroom suite. Nicely done and lots of space to relax. Has a FULL kitchen not a kitchenette. Even has a small oven! The 3 tvs are nice but they are kinda small, and the remote needed some help to get working. The breakfast on the weekend, although free, is not really that great. Hardboiled eggs, and breads, cereal, etc. But the waffle machine wss nice :). Staff was friendly! THe elevators are sloooooow, but they work just fine. Nicely maintained hotel, snacks available downstairs as well No awning out front to unload under during the rain. I give this place a solid 4.25 and my partnes were very pleased with the price and rooms. Would stay again if the price was right again!MoreShow less</t>
+  </si>
+  <si>
+    <t>We got the 2 bedroom 1 bathroom suite. Nicely done and lots of space to relax. Has a FULL kitchen not a kitchenette. Even has a small oven! The 3 tvs are nice but they are kinda small, and the remote needed some help to get working. The breakfast on the weekend, although free, is not really that great. Hardboiled eggs, and breads, cereal, etc. But the waffle machine wss nice :). Staff was friendly! THe elevators are sloooooow, but they work just fine. Nicely maintained hotel, snacks available downstairs as well No awning out front to unload under during the rain. I give this place a solid 4.25 and my partnes were very pleased with the price and rooms. Would stay again if the price was right again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r602809233-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>602809233</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>Exceptional Staff</t>
+  </si>
+  <si>
+    <t>This is a must stay when in Harvey Louisiana. Great location, food and exceptional staff! Mrs. Jaime was friendly and provided me with the best customer service I have ever received at a hotel!I will definitely stay here every time I come into Louisiana!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r601926036-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>601926036</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>MY EXPERIENCE</t>
+  </si>
+  <si>
+    <t>This hotel was not a bad place to stay.  Our family stayed here while spending a couple of days in New Orleans.  The front desk was very helpful and professional.  The rooms were clean as well as the bathrooms.  Breakfast was good and that's about all I have.  I will definitely stay at this hotel the next time I am in New Orleans.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r593776597-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>593776597</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>CHOOSE ANOTHER HOTEL</t>
+  </si>
+  <si>
+    <t>The lamp on the right side of our bed did not work as well as the outlet below it. We also found a huge dead bug in our room and had bugs in the bathroom. The electrical issue was fixed quickly but there is no excuse for this room to be rented out in this condition. We have stayed at many Marriott hotels over the years and this is the worst one.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r591287958-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>591287958</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>Perfect Place 4 Perks</t>
+  </si>
+  <si>
+    <t>Used my Marriott Rewards Points for a bonus night after spending most of my time in downtown NOLa.  While it's not far, It would not be a prime spot for daily commuting into the inner city unless you are doing it leisurely.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r590074517-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>590074517</t>
+  </si>
+  <si>
+    <t>06/23/2018</t>
+  </si>
+  <si>
+    <t>Good 1 night stay</t>
+  </si>
+  <si>
+    <t>Very nice, kitchenette, 2 bedrooms and a sofa sleeper.  Breakfast was good. Front desk personnel were very helpful.  Only 1 drawback, there was blood on the curtains in #2 bedroom, and what appeared to be blood in the carpet by the sofa/sofa bed. That kinda freaked us out. We mentioned it to staff.  I hope they got it cleaned up. Senior discount with taxes still $178.00</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r585183434-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>585183434</t>
+  </si>
+  <si>
+    <t>06/04/2018</t>
+  </si>
+  <si>
+    <t>Overcharged &amp; Undesirable amenties</t>
+  </si>
+  <si>
+    <t>I am sorry I normally would not write a bad review; however, this place had allot to desire. We are frequent travelers and stay at various Marriott establishments...this had to be 1 of the most undesirable. It started with walking into the established not a friendly front desk rep. especially when there was an issue with my reservation. So after arriving a room I called Marriott and they solved the issue for me. The rep. could have done this too just to have a happy customer. Then the breakfast on the weekend they only serve boiled eggs, sausage, waffles &amp; bagels if you are lucky, you have to keep reminding to refill the coffee dispenser. During the week the breakfast was not any better 1 style of eggs and please don't arrive fives before they are closing you may not get anything. I watched a few people walk away very disappointed. I felt after reading the reviews this would be a nice place the only thing I can say positive is the parking free and the rooms are clean with the full kitchen which was a plus. Unfortunately, I hope we will not have to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I am sorry I normally would not write a bad review; however, this place had allot to desire. We are frequent travelers and stay at various Marriott establishments...this had to be 1 of the most undesirable. It started with walking into the established not a friendly front desk rep. especially when there was an issue with my reservation. So after arriving a room I called Marriott and they solved the issue for me. The rep. could have done this too just to have a happy customer. Then the breakfast on the weekend they only serve boiled eggs, sausage, waffles &amp; bagels if you are lucky, you have to keep reminding to refill the coffee dispenser. During the week the breakfast was not any better 1 style of eggs and please don't arrive fives before they are closing you may not get anything. I watched a few people walk away very disappointed. I felt after reading the reviews this would be a nice place the only thing I can say positive is the parking free and the rooms are clean with the full kitchen which was a plus. Unfortunately, I hope we will not have to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r584564546-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>584564546</t>
+  </si>
+  <si>
+    <t>06/02/2018</t>
+  </si>
+  <si>
+    <t>Two Night Stay</t>
+  </si>
+  <si>
+    <t>We’ve stayed at this hotel twice now, and we love it! The rooms feature a stocked kitchenette, large desk, couch, dresser, and TV. The beds are comfortable, the showers are big, and the staff are friendly and accommodating. We will definitely stay here again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r575860470-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>575860470</t>
+  </si>
+  <si>
+    <t>04/26/2018</t>
+  </si>
+  <si>
+    <t>AWESOME!!</t>
+  </si>
+  <si>
+    <t>I’ve been to a few hotels and Jamie (front desk) made this trip Awesome. I will DEFINITELY be back next time I go to New Orleans. She made this trip extra special, anything I needed she was more than willing to help and if the hotel didn’t have it she found a way to get me what I needed. GREAT JOB JAMIE!!!!!</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r575810827-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>575810827</t>
+  </si>
+  <si>
+    <t>Team players</t>
+  </si>
+  <si>
+    <t>Go to this hotel. We went here on a spur of the moment kind of thing, excellent staff, excellent location, close to restaurants and it was just plain great, charlote in breakfast was doing a great job but was alone, the front desk lady left her post to help her both with smiles on their faces, they make this place what it is, I hope management knows what they have in them two women. We will be back no doubt.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r574692300-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>574692300</t>
+  </si>
+  <si>
+    <t>04/21/2018</t>
+  </si>
+  <si>
+    <t>Off the beaten path</t>
+  </si>
+  <si>
+    <t>If you are coming to NOLA and want a peaceful, quiet place to come home to, this is the place. Located on the West Bank, we have never spent more then ten minutes to get across the bridge to NOLA either coming or going. The view is lovely heading over to the city across the Mississippi River where you see the skyline in all its glory. You can get right into the heart of the Business and Art District (WW II Museum as well as others) with the first exit at Tchoupitoulas. The staff is composed like a well tuned, inviting instrument that go out of their way to make every stay well accommodated from Palestine the GM who is a hands on and friendly GM, Jamie, who manages the night crew with complete and total quiet Southern charm, (they both have bent over backwards to help us)  Brett is a jack of all trades with his multi-talents, Charlotte never misses a beat with her breakfast service and last but not least Victoria, the loveliest housekeeper we have encountered. Pet friendly, great suites if you even think about cooking! If not Rouses is near by for a crab boil to go plus every major mass chain is nearby for essentials. No liquor license but restaurants and Daiquiris within walking distance if you need to fuel up. Free parking which you can't get in the city so you can treat yourself...If you are coming to NOLA and want a peaceful, quiet place to come home to, this is the place. Located on the West Bank, we have never spent more then ten minutes to get across the bridge to NOLA either coming or going. The view is lovely heading over to the city across the Mississippi River where you see the skyline in all its glory. You can get right into the heart of the Business and Art District (WW II Museum as well as others) with the first exit at Tchoupitoulas. The staff is composed like a well tuned, inviting instrument that go out of their way to make every stay well accommodated from Palestine the GM who is a hands on and friendly GM, Jamie, who manages the night crew with complete and total quiet Southern charm, (they both have bent over backwards to help us)  Brett is a jack of all trades with his multi-talents, Charlotte never misses a beat with her breakfast service and last but not least Victoria, the loveliest housekeeper we have encountered. Pet friendly, great suites if you even think about cooking! If not Rouses is near by for a crab boil to go plus every major mass chain is nearby for essentials. No liquor license but restaurants and Daiquiris within walking distance if you need to fuel up. Free parking which you can't get in the city so you can treat yourself with the savings at Commanders Palace.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>If you are coming to NOLA and want a peaceful, quiet place to come home to, this is the place. Located on the West Bank, we have never spent more then ten minutes to get across the bridge to NOLA either coming or going. The view is lovely heading over to the city across the Mississippi River where you see the skyline in all its glory. You can get right into the heart of the Business and Art District (WW II Museum as well as others) with the first exit at Tchoupitoulas. The staff is composed like a well tuned, inviting instrument that go out of their way to make every stay well accommodated from Palestine the GM who is a hands on and friendly GM, Jamie, who manages the night crew with complete and total quiet Southern charm, (they both have bent over backwards to help us)  Brett is a jack of all trades with his multi-talents, Charlotte never misses a beat with her breakfast service and last but not least Victoria, the loveliest housekeeper we have encountered. Pet friendly, great suites if you even think about cooking! If not Rouses is near by for a crab boil to go plus every major mass chain is nearby for essentials. No liquor license but restaurants and Daiquiris within walking distance if you need to fuel up. Free parking which you can't get in the city so you can treat yourself...If you are coming to NOLA and want a peaceful, quiet place to come home to, this is the place. Located on the West Bank, we have never spent more then ten minutes to get across the bridge to NOLA either coming or going. The view is lovely heading over to the city across the Mississippi River where you see the skyline in all its glory. You can get right into the heart of the Business and Art District (WW II Museum as well as others) with the first exit at Tchoupitoulas. The staff is composed like a well tuned, inviting instrument that go out of their way to make every stay well accommodated from Palestine the GM who is a hands on and friendly GM, Jamie, who manages the night crew with complete and total quiet Southern charm, (they both have bent over backwards to help us)  Brett is a jack of all trades with his multi-talents, Charlotte never misses a beat with her breakfast service and last but not least Victoria, the loveliest housekeeper we have encountered. Pet friendly, great suites if you even think about cooking! If not Rouses is near by for a crab boil to go plus every major mass chain is nearby for essentials. No liquor license but restaurants and Daiquiris within walking distance if you need to fuel up. Free parking which you can't get in the city so you can treat yourself with the savings at Commanders Palace.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r573296838-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>573296838</t>
+  </si>
+  <si>
+    <t>04/14/2018</t>
+  </si>
+  <si>
+    <t>My Home away from Home...this is the only place we stay when we visit New Orleans</t>
+  </si>
+  <si>
+    <t>Its like living in a miniature apartment away from home. I know everyone by name and they recognize us when we come back to stay. It feels great having good customer service all the time from the same ladies. This is my 4th stay here and everyone remains the same with caring hospitality. The 2 bedroom is very spacious and roomy for me and my family of 5. Everyone at the front desk day, evening and nights are kind and helpful. Angela, Beem, Jamie and Tina friendly faces and eager to assist.I have to give a special Thanks to Ms Charolette, Brandy and Leonika in the breakfast area. Their always helping me and my kids with getting breakfast to the table . Because of y'all genuine hospitality and kindness we will be returning back to this hotel. May God bless you until we meet again. Harris FamilyMoreShow less</t>
+  </si>
+  <si>
+    <t>Its like living in a miniature apartment away from home. I know everyone by name and they recognize us when we come back to stay. It feels great having good customer service all the time from the same ladies. This is my 4th stay here and everyone remains the same with caring hospitality. The 2 bedroom is very spacious and roomy for me and my family of 5. Everyone at the front desk day, evening and nights are kind and helpful. Angela, Beem, Jamie and Tina friendly faces and eager to assist.I have to give a special Thanks to Ms Charolette, Brandy and Leonika in the breakfast area. Their always helping me and my kids with getting breakfast to the table . Because of y'all genuine hospitality and kindness we will be returning back to this hotel. May God bless you until we meet again. Harris FamilyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r571589491-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>571589491</t>
+  </si>
+  <si>
+    <t>04/06/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everyone is friendly and kind here </t>
+  </si>
+  <si>
+    <t>Tina Armstong and Beam at the front desk  were the nicest ladies to greet us at the hotel they will get you anything you need and Mrs Charlotte who worked in the breakfast area was very helpful to my sister and I during breakfast. This hotel is very clean and the people there makes me feel like I'm at home.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r571386142-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>571386142</t>
+  </si>
+  <si>
+    <t>04/05/2018</t>
+  </si>
+  <si>
+    <t>AWESOME PLACE TO STAY</t>
+  </si>
+  <si>
+    <t>Beem was very helpful, humble and polite. She gave me some great places to visit why I'm here. I'm very impressed with this hotel and my room.  My room is clean and kids friendly. We approved this hotel</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r569246823-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>569246823</t>
+  </si>
+  <si>
+    <t>03/28/2018</t>
+  </si>
+  <si>
+    <t>Post Cruise Stay</t>
+  </si>
+  <si>
+    <t>We had already seen Bourbon Street and all the New Orleans tourist spots so we chose this hotel for our post cruise stay for a couple of days before heading home.  We arrived a little early and we were informed that there were 2 guests in front of us also waiting for early check in.  No problem.  We were offered a place to store our luggage, coffee and a comfy place to wait.  We were offered a handicapped room and while this was OK with us I couldn't help but wonder what would happen if there were a guest that actually *needed that room???  The breakfast eating area is a little small for the size of the hotel, but breakfast choices were good and the service staff was friendly.  Angela at the front desk was friendly and professional - very helpful with dinner suggestions and anything else we needed.  Our stay was uneventful - quiet and restful before our trip home.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had already seen Bourbon Street and all the New Orleans tourist spots so we chose this hotel for our post cruise stay for a couple of days before heading home.  We arrived a little early and we were informed that there were 2 guests in front of us also waiting for early check in.  No problem.  We were offered a place to store our luggage, coffee and a comfy place to wait.  We were offered a handicapped room and while this was OK with us I couldn't help but wonder what would happen if there were a guest that actually *needed that room???  The breakfast eating area is a little small for the size of the hotel, but breakfast choices were good and the service staff was friendly.  Angela at the front desk was friendly and professional - very helpful with dinner suggestions and anything else we needed.  Our stay was uneventful - quiet and restful before our trip home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r568903946-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>568903946</t>
+  </si>
+  <si>
+    <t>03/26/2018</t>
+  </si>
+  <si>
+    <t>NOT WHAT YOU'D EXPECT FROM MARRIOTT PROPERTY</t>
+  </si>
+  <si>
+    <t>I am not at all happy about my experience with this hotel. Ii worked for Marriott for many years. And I know first hand that the type of room I was offered this weekend is not one that would be accepted on Marriott terms. The cracks in the walls, the drain did not drain in the bathtub. The bathroom door doesn't close properly or lock. The rooms are very small. Upon making reservations on February 13 for March 23, I asked for a two bedroom suite when I reviewed my reservations I had a small cramped up Studio. All they could tell me was that they were sold out that weekend. Please make plans to eat breakfast elsewhere as the breakfast served here was awful to say the least. Coffee is horrible. Two stars, because the staff was somewhat friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am not at all happy about my experience with this hotel. Ii worked for Marriott for many years. And I know first hand that the type of room I was offered this weekend is not one that would be accepted on Marriott terms. The cracks in the walls, the drain did not drain in the bathtub. The bathroom door doesn't close properly or lock. The rooms are very small. Upon making reservations on February 13 for March 23, I asked for a two bedroom suite when I reviewed my reservations I had a small cramped up Studio. All they could tell me was that they were sold out that weekend. Please make plans to eat breakfast elsewhere as the breakfast served here was awful to say the least. Coffee is horrible. Two stars, because the staff was somewhat friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r564399327-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>564399327</t>
+  </si>
+  <si>
+    <t>03/04/2018</t>
+  </si>
+  <si>
+    <t>Cruise</t>
+  </si>
+  <si>
+    <t>Great place to stay. Very hospitable, clean. Angela at the front desk was a big help on about New Orleans. We were allow to leave our car park there while we cruise for 7 days. This hotel was 15 minutes from Port of New Orleans.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r556933252-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>556933252</t>
+  </si>
+  <si>
+    <t>01/28/2018</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>Rooms are comfortable but very small...loaded with great features. Hotel housekeeping could use a little work in maintaining cleanliness of rooms. Space cleaners dont speak good english thus, making it hard to communicate with guests. Hotel is beautifully decorated and front desk staff pleasant always. My stay was great had a king room with all of what i needed. should visit if you get the chance. Parking is free and very limited. Hotel is near to lots of shopping and dining all the favourites..... Will i stay again?  I dont think so....my first choice is always Hilton brand!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r551784467-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>551784467</t>
+  </si>
+  <si>
+    <t>01/05/2018</t>
+  </si>
+  <si>
+    <t>Westbank Pampering</t>
+  </si>
+  <si>
+    <t>As a Platinum Elite member I'm a little seasoned with travel and expectations. I was quite impressed with GM Ms Palatine (Kate Winslet), I've had the opportunity to stay both long and short term. In both instances the staff exceeded all of what's expected. The staff beginning with the GM to the front desk personnel treat you as family from the moment you enter until check out. I found them to be most intuitive of your needs and accommodating. My family found  Brett and Jamie to be quite  personable and professional . I attribute this exemplary staff an extension of the General Manager. It's the type of place that you look forward to staying.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>As a Platinum Elite member I'm a little seasoned with travel and expectations. I was quite impressed with GM Ms Palatine (Kate Winslet), I've had the opportunity to stay both long and short term. In both instances the staff exceeded all of what's expected. The staff beginning with the GM to the front desk personnel treat you as family from the moment you enter until check out. I found them to be most intuitive of your needs and accommodating. My family found  Brett and Jamie to be quite  personable and professional . I attribute this exemplary staff an extension of the General Manager. It's the type of place that you look forward to staying.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r551538196-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>551538196</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t>Loved the Staff, Everything else was Meh.</t>
+  </si>
+  <si>
+    <t>We were in room 121 which is an ADA compliant room because that was all that was available, not because we needed it. If I needed the room I would have been irritated that I wouldnt have been able to open the closet doors to access them if I was in a wheelchair because there is a bed preventing them from opening all the way. Upon check in there was an overpowering smell of cleaning products. I am not sure if this is because they allow pets but it was nauseating and had dissipated to an acceptable level by bedtime. The room was noisy from the waffle maker during breakfast which you can hear from the room. The beds were comfie and the staff were wonderful and friendly. Lots of dining nearby and a hobby lobby next door for last minute crafting emergencies. As per any hotel stay take your earplugs and you should be fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were in room 121 which is an ADA compliant room because that was all that was available, not because we needed it. If I needed the room I would have been irritated that I wouldnt have been able to open the closet doors to access them if I was in a wheelchair because there is a bed preventing them from opening all the way. Upon check in there was an overpowering smell of cleaning products. I am not sure if this is because they allow pets but it was nauseating and had dissipated to an acceptable level by bedtime. The room was noisy from the waffle maker during breakfast which you can hear from the room. The beds were comfie and the staff were wonderful and friendly. Lots of dining nearby and a hobby lobby next door for last minute crafting emergencies. As per any hotel stay take your earplugs and you should be fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r550884514-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>550884514</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice Hotel </t>
+  </si>
+  <si>
+    <t>Booked room in November for a January 1st stay at a reasonable price. Arrived at the Hotel around 1PM and they had a room ready for us. Upon entering the room everything was clean and well stocked. Free Parking in front and. ack and several stores and restaurants in the area. Breakfast was ok with Eggs, Turkey Sausage, Waffles, Cereals, Yogurt, Fruits, Toast, Bagels, Muffins, Juice and Coffee. Hotel staff was very friendly and helpful. Would stay again if coming back to New Orleans.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r540540644-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>540540644</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>Great Deal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing fancy but a very clean and the staff goes out of their way to assist and meet your requests.  It’s conveniently located to jump on the expressway into the city, catch an Uber, or even better catch the ferry at Algiers for a quick ride across the Mississippi.  You enjoy Westbank hospitality and the rates are so much more reasonable than in the city.  Will definitely stay here again. </t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r536852493-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>536852493</t>
+  </si>
+  <si>
+    <t>10/29/2017</t>
+  </si>
+  <si>
+    <t>Room was soaking in cleaning agent - door broken</t>
+  </si>
+  <si>
+    <t>We spent one night of the Halloween Weekend in New Orleans and booked last minute this hotel. When we came to the room it was strongly smelling of cleaning agent and it was very hard to convince the staff that this is not normal. In the end they washed the tiles in the kitchenette and then it was slightly better.The doors were broken - the entry door could be opened without a key car and the bathroom door stuck.Breakfast is included but with creating a lot of garbage as it is using styrofoam plates and cups etc. For a European absolutely not understandable to create so much garbage just for breakfast. All in all very bad for a hotel of this category - the room was clean and nice, but with the smell of the cleaning agent not really enjoyable.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>We spent one night of the Halloween Weekend in New Orleans and booked last minute this hotel. When we came to the room it was strongly smelling of cleaning agent and it was very hard to convince the staff that this is not normal. In the end they washed the tiles in the kitchenette and then it was slightly better.The doors were broken - the entry door could be opened without a key car and the bathroom door stuck.Breakfast is included but with creating a lot of garbage as it is using styrofoam plates and cups etc. For a European absolutely not understandable to create so much garbage just for breakfast. All in all very bad for a hotel of this category - the room was clean and nice, but with the smell of the cleaning agent not really enjoyable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r535353523-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>535353523</t>
+  </si>
+  <si>
+    <t>10/23/2017</t>
+  </si>
+  <si>
+    <t>Wonderful place!</t>
+  </si>
+  <si>
+    <t>We had a group of 4 and wanted to accommodate up to 6 in the event any friends decided to come last minute.The room was clean, the staff friendly, it's pet friendly for those that have pets. Pet friendly hotels generally discourage me because they don't always clean up well behind the pets, but that wasn't the case here.Definitely recommend here.You have at least a 20 minute or so drive to the hottest tourist spots, but we took a Lyft and was fine.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r533582184-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>533582184</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>Great for Cruisers</t>
+  </si>
+  <si>
+    <t>We were in New Orleans to catch a cruise and needed a room that would accommodate 5. We had 2 adults and 3 children. The townplace suites was perfect since they have 2 bedroom suites with a living room pull-out. We only had to pay for 1 room to accommodate us all and we had free parking. Unlike all the other places near the port. The scheduled a cab for us to the port and it was $20. The port is only 9 miles away. It was way cheaper than paying for parking at the port and we didn't have to worry about traffic. It was a clean, nice facility, and staff were friendly. We will make this our stay from now on.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>We were in New Orleans to catch a cruise and needed a room that would accommodate 5. We had 2 adults and 3 children. The townplace suites was perfect since they have 2 bedroom suites with a living room pull-out. We only had to pay for 1 room to accommodate us all and we had free parking. Unlike all the other places near the port. The scheduled a cab for us to the port and it was $20. The port is only 9 miles away. It was way cheaper than paying for parking at the port and we didn't have to worry about traffic. It was a clean, nice facility, and staff were friendly. We will make this our stay from now on.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r531935709-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>531935709</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>TownePlace Marriott Harvey/West Bank</t>
+  </si>
+  <si>
+    <t>Stayed in a studio suite with full kitchen.  Hotel is clean and the staff is friendly and helpful.  Bed was comfortable.  Hotel is about a twenty minute drive to the French Quarters.  I was in Harvey for a wedding so this located fit my needs perfectly.  Free parking available in front or behind the building.  Hotel well lite at night so you feel safe for late arrivals.  Close by lots of shopping choices if you need anything.  When in Harvey this is my first choice.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r528001587-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>528001587</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>Good customer service!</t>
+  </si>
+  <si>
+    <t>I booked the 2 bedroom suite. They come very small - be warned! The suite offers a single washroom. You will be almost on top of each other if you are in a group of more than 3 (as I was). It was so squashed and tight in space that I was ready to check out after the 1st day. This is where the hotel manager impressed me; she moved us to 2 studios (side by side). This offered more space. The beds were comfortable and you had enough space to manoeuvre.The hotel offers free parking.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r527706620-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>527706620</t>
+  </si>
+  <si>
+    <t>09/26/2017</t>
+  </si>
+  <si>
+    <t>First Visit to New Orleans</t>
+  </si>
+  <si>
+    <t>I was visiting Memphis on a roadtrip from Wisconsin and decided to venture further south by car with my dog to New Orleans  A.  because it was only an additional six hours by car and B.  because I had never been there before.I chose TownePlace and Suites because dogs are permitted and because it was cheaper than staying downtown.  The hotel was bustling in part due to the recent evacuation of Florida due to the hurricane.  There was also a birthday party with at least 10 kids under the age of 12 on the floor right above me and they were rambunctious in the halls.  I was pleasantly surprised to find that once I was in my room, I couldn't hear them.  The place must have excellent soundproofing.  I stayed in a studio type room with a dishwasher, microwave and full refriderator.  The interior design was fresh and contemporary.  The pet fee was a flat non-refundable $100.  I stayed two nights.  I'd recommend this place for anyone who doesn't plan on getting intoxicated on Bourbon Street or who has a safe sober ride.  It is very close to shopping and there are quite a few restaurants near by that deliver to the hotel.  The breakfast is free.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I was visiting Memphis on a roadtrip from Wisconsin and decided to venture further south by car with my dog to New Orleans  A.  because it was only an additional six hours by car and B.  because I had never been there before.I chose TownePlace and Suites because dogs are permitted and because it was cheaper than staying downtown.  The hotel was bustling in part due to the recent evacuation of Florida due to the hurricane.  There was also a birthday party with at least 10 kids under the age of 12 on the floor right above me and they were rambunctious in the halls.  I was pleasantly surprised to find that once I was in my room, I couldn't hear them.  The place must have excellent soundproofing.  I stayed in a studio type room with a dishwasher, microwave and full refriderator.  The interior design was fresh and contemporary.  The pet fee was a flat non-refundable $100.  I stayed two nights.  I'd recommend this place for anyone who doesn't plan on getting intoxicated on Bourbon Street or who has a safe sober ride.  It is very close to shopping and there are quite a few restaurants near by that deliver to the hotel.  The breakfast is free.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r526073574-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>526073574</t>
+  </si>
+  <si>
+    <t>09/20/2017</t>
+  </si>
+  <si>
+    <t>Troublefree stay</t>
+  </si>
+  <si>
+    <t>Stayed here for a long weekend recently. Checkin in was fast and our request for a top floor room was honored so noise from upstairs guests wasn't a problem. The room itself was clean, well maintained, and fully functional - bed was very comfortable and the inroom kitchen was great for stocking up on cold beverages and ice cream as well as heating up food as needed. The property is close to various restaurants and fast food places and only about 10 minutes or so by car from the French Quarter if you want even more choices or just want to do some sightseeing, etc.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r524154318-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>524154318</t>
+  </si>
+  <si>
+    <t>09/13/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evacuees from Florida-Thank You! </t>
+  </si>
+  <si>
+    <t>Got this hotel last minute as we evacuated from Florida for hurricane Irma. We booked day of and they couldn't have been more accommodating. Our rooms were great and clean, loved the kitchen which we used since we had so much food. Staff is super friendly and helpful. We ordered dinner one night and ate in the breakfast area and it was fantastic! Pet friendly which was the best as we had our dogs with us. We want to return to New Orleans under different circumstances and we said we will look into staying here again. Thank you!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r508577392-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>508577392</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>I was welcomed with open arms</t>
+  </si>
+  <si>
+    <t>I was welcomed with open arms from the time I walked in the door Ms Beem was the best front desk person I ever meet and will be back to stay soon !!! Thanks for everything Ms Beem you are the best and was very helpful</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r508241709-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>508241709</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>Not what I expected</t>
+  </si>
+  <si>
+    <t>This hotel was nice, room large enough for a few nights stay.  Loved the full kitchen. The only things I did not like was there was not enough space in the closet due to how it's configured and how the bathroom is located.  The breakfast was ok, you just had to get there before everything was gone as not much is replenished.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r502074508-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>502074508</t>
+  </si>
+  <si>
+    <t>07/14/2017</t>
+  </si>
+  <si>
+    <t>Awesome!!!</t>
+  </si>
+  <si>
+    <t>I extremely loved my stay at Towneplace suites Marriott westbank. I stayed in room 212 and the front desk lady Jamie was wonderful. I highly recommend!!! Hopefully you will get Jamie too because she was very helpful on my stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r497539892-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>497539892</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>Disorganized</t>
+  </si>
+  <si>
+    <t>It was raining when we arrived in New Orleans, so we drove to the hotel, hoping for an early check-in. Check-in was at 3 and we arrived at 2:30. Our room wasn't ready, so we waited in the parking lot until 3:05. By that time, (after 5 and 1/2 hours driving) I had three bored kids and my wife and I were ready to relax, so we went in - the room was still not ready, so we waited in the lobby. It wasn't until 3:30 that the room was finally ready. (We overheard some of the staff talking about a power outage that had occurred earlier), but the front desk staff never explained this as the reason for the delay, which would have been perfectly understandable. The room was nice, pool area clean, but the TV and the phone was out of order when we arrived in the room (again, probably due to the power outage). The front desk was prompt in sending someone up to reset/fix the TV. The oddest thing about the front desk was how payment was handled. We paid with cash, so they required $200 extra dollars to be stored in the safe in case of damages. We obliged but asked for a receipt. They refused, explaining that we weren't actually paying the money, they were just holding it. We were exhausted and chose to take the risk. Upon checkout, they claimed that we had...It was raining when we arrived in New Orleans, so we drove to the hotel, hoping for an early check-in. Check-in was at 3 and we arrived at 2:30. Our room wasn't ready, so we waited in the parking lot until 3:05. By that time, (after 5 and 1/2 hours driving) I had three bored kids and my wife and I were ready to relax, so we went in - the room was still not ready, so we waited in the lobby. It wasn't until 3:30 that the room was finally ready. (We overheard some of the staff talking about a power outage that had occurred earlier), but the front desk staff never explained this as the reason for the delay, which would have been perfectly understandable. The room was nice, pool area clean, but the TV and the phone was out of order when we arrived in the room (again, probably due to the power outage). The front desk was prompt in sending someone up to reset/fix the TV. The oddest thing about the front desk was how payment was handled. We paid with cash, so they required $200 extra dollars to be stored in the safe in case of damages. We obliged but asked for a receipt. They refused, explaining that we weren't actually paying the money, they were just holding it. We were exhausted and chose to take the risk. Upon checkout, they claimed that we had made a $14 dollar phone call, which was impossible since the phone didn't work the entire time that we were there. We explained this and the desk manager "waived" the fee. Other hotels that we have stayed in handled cash payments in a much more professional way and we did offer to provide a credit card number... The whole place just seemed mismanaged, unprofessional and altogether disorganized.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>It was raining when we arrived in New Orleans, so we drove to the hotel, hoping for an early check-in. Check-in was at 3 and we arrived at 2:30. Our room wasn't ready, so we waited in the parking lot until 3:05. By that time, (after 5 and 1/2 hours driving) I had three bored kids and my wife and I were ready to relax, so we went in - the room was still not ready, so we waited in the lobby. It wasn't until 3:30 that the room was finally ready. (We overheard some of the staff talking about a power outage that had occurred earlier), but the front desk staff never explained this as the reason for the delay, which would have been perfectly understandable. The room was nice, pool area clean, but the TV and the phone was out of order when we arrived in the room (again, probably due to the power outage). The front desk was prompt in sending someone up to reset/fix the TV. The oddest thing about the front desk was how payment was handled. We paid with cash, so they required $200 extra dollars to be stored in the safe in case of damages. We obliged but asked for a receipt. They refused, explaining that we weren't actually paying the money, they were just holding it. We were exhausted and chose to take the risk. Upon checkout, they claimed that we had...It was raining when we arrived in New Orleans, so we drove to the hotel, hoping for an early check-in. Check-in was at 3 and we arrived at 2:30. Our room wasn't ready, so we waited in the parking lot until 3:05. By that time, (after 5 and 1/2 hours driving) I had three bored kids and my wife and I were ready to relax, so we went in - the room was still not ready, so we waited in the lobby. It wasn't until 3:30 that the room was finally ready. (We overheard some of the staff talking about a power outage that had occurred earlier), but the front desk staff never explained this as the reason for the delay, which would have been perfectly understandable. The room was nice, pool area clean, but the TV and the phone was out of order when we arrived in the room (again, probably due to the power outage). The front desk was prompt in sending someone up to reset/fix the TV. The oddest thing about the front desk was how payment was handled. We paid with cash, so they required $200 extra dollars to be stored in the safe in case of damages. We obliged but asked for a receipt. They refused, explaining that we weren't actually paying the money, they were just holding it. We were exhausted and chose to take the risk. Upon checkout, they claimed that we had made a $14 dollar phone call, which was impossible since the phone didn't work the entire time that we were there. We explained this and the desk manager "waived" the fee. Other hotels that we have stayed in handled cash payments in a much more professional way and we did offer to provide a credit card number... The whole place just seemed mismanaged, unprofessional and altogether disorganized.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r495590996-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>495590996</t>
+  </si>
+  <si>
+    <t>06/24/2017</t>
+  </si>
+  <si>
+    <t>Absolute Terrible</t>
+  </si>
+  <si>
+    <t>Slow Check-in, elevators malfunction not addressed - had to use stairs - staff unresponsive, Large settlement cracks in walls in hallway and room. Door to room had space of 3 inches at top, doors inside room did not close.  Tub needed caulking, sink stopper did not work properly.  No Ice on floor.  Old furniture. Staff standing around not working.  Breakfast minimal - no coffee until we advised staff to refill.  Manager on duty just did not care or offer any remedy.  Left hotel several days early to go to Best Western next door.  Much better!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r492302617-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>492302617</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>Such a NICE Place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From check-in to check-out simply superb. Check in person extremely knowledgeable and friendly. House keeping supervisor personally made sure we had everything and knew how to reach her. Check-out smooth and easy. Our room was immaculate and quite lovely. Comfy beds. Great linens. Quiet. Ample parking. Pool was crystal clear. Can't say enough great things about our stay! Thanks for the hospitality. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r487799516-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>487799516</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>Nice hotel. Clean. Friendly staff. Not too long of a drive away from the French Quarter. About $14 in an uber. Rooms are great, appreciate the bigger fridge since we drove here and have snacks and what not. Would stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>PalestineS, General Manager at TownePlace Suites New Orleans Harvey/West Bank, responded to this reviewResponded May 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2017</t>
+  </si>
+  <si>
+    <t>Nice hotel. Clean. Friendly staff. Not too long of a drive away from the French Quarter. About $14 in an uber. Rooms are great, appreciate the bigger fridge since we drove here and have snacks and what not. Would stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r484089300-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>484089300</t>
+  </si>
+  <si>
+    <t>05/14/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good West Bank accommodations </t>
+  </si>
+  <si>
+    <t>I was very pleased with my recent stay at Towne Place suites.  The rooms are very comfortable and quiet and the service was excellent.  There was always someone at the front desk to greet you and offer any help, if needed.  If you want to go to downtown, it is a very short, easy drive.  MoreShow less</t>
+  </si>
+  <si>
+    <t>I was very pleased with my recent stay at Towne Place suites.  The rooms are very comfortable and quiet and the service was excellent.  There was always someone at the front desk to greet you and offer any help, if needed.  If you want to go to downtown, it is a very short, easy drive.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r479275115-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>479275115</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>Friendly, great place to stay!</t>
+  </si>
+  <si>
+    <t>We had a Marine Corps reunion in New Orleans and picked this hotel to house all the people staying in town.  A wonderful place to stay!  Located to many places to eat, close to the express way, and very affordable rates.  I had the opportunity to speak with a manager, Christina Hidinger and found her very helpful with many of my questions.  Will stay again on our next reunion!</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r461304986-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>461304986</t>
+  </si>
+  <si>
+    <t>02/19/2017</t>
+  </si>
+  <si>
+    <t>Very disappointed</t>
+  </si>
+  <si>
+    <t>On our second and third visits were not as impressed as we were on the first. At check in, front desk employee gave wrong time for breakfast so missed breakfast. The breakfast attendant was rude when we told her that. It had the same eggs every day, except no eggs on the weekend. No plastic knives, either can’t someone run out to the CVS next door or Dollar store and buy a pack? The front desk did not return calls when promised to check on belongings left in the room after check out. After 3 days of calling, someone finally found the stuff.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>PalestineS, General Manager at TownePlace Suites New Orleans Harvey/West Bank, responded to this reviewResponded February 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2017</t>
+  </si>
+  <si>
+    <t>On our second and third visits were not as impressed as we were on the first. At check in, front desk employee gave wrong time for breakfast so missed breakfast. The breakfast attendant was rude when we told her that. It had the same eggs every day, except no eggs on the weekend. No plastic knives, either can’t someone run out to the CVS next door or Dollar store and buy a pack? The front desk did not return calls when promised to check on belongings left in the room after check out. After 3 days of calling, someone finally found the stuff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r458881492-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>458881492</t>
+  </si>
+  <si>
+    <t>02/12/2017</t>
+  </si>
+  <si>
+    <t>Shout Out to Terrence!</t>
+  </si>
+  <si>
+    <t>This hotel is very nice. It's easy to get to from the airport (about 25min w/out traffic). Parking is simple, the lobby is cozy. Rooms are clean and well laid out. But what makes this hotel great is Terrence at the front desk! From the moment I walked in he went above and beyond the call of duty, and was a joy to be around. He made the check-in process fun and entertaining (while maintaining a speedy check-in) He provided info on the hotel, and local traffic patterns. I had 15 boxes delivered and while I dropped off my luggage he put all of the boxes on carts for me, and helped me bring them to my car. So, thank you, Terrence!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>This hotel is very nice. It's easy to get to from the airport (about 25min w/out traffic). Parking is simple, the lobby is cozy. Rooms are clean and well laid out. But what makes this hotel great is Terrence at the front desk! From the moment I walked in he went above and beyond the call of duty, and was a joy to be around. He made the check-in process fun and entertaining (while maintaining a speedy check-in) He provided info on the hotel, and local traffic patterns. I had 15 boxes delivered and while I dropped off my luggage he put all of the boxes on carts for me, and helped me bring them to my car. So, thank you, Terrence!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r458409420-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>458409420</t>
+  </si>
+  <si>
+    <t>02/09/2017</t>
+  </si>
+  <si>
+    <t>best staff ever!!</t>
+  </si>
+  <si>
+    <t>me and my girl friends decided to stay at this hotel a couple months back, for a girls night out, and let me say that this is by far the best hotel I have been to in quite some time, from check in to check out it was great!! I must say that diane and Jamie were by far the most sweetest people on the face of the earth... breakfast was amazing, and housekeeping was also good!! close to resturants and they have a hobby lobby next door too... all in all    they get a Aplus in my book...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r456522821-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>456522821</t>
+  </si>
+  <si>
+    <t>02/01/2017</t>
+  </si>
+  <si>
+    <t>No Complaints!! Awesome Staff!!</t>
+  </si>
+  <si>
+    <t>This is hands-down the friendliest staff of hotel employees I've ever experienced and I've stayed in plenty hotels from budget to luxury. Every person you pass either smiles, says hi, or starts conversation. I was so impressed that I let the General Manager know on our elevator ride together. Aside from that, we had a nice, comfortable stay following a horrible stay at Hampton Inn &amp; Suites down the street. We were out of our home for several weeks due to renovations to our home following a kitchen fire. As if that situation isn't stressful enough, it's nice to be in a warm, kid-friendly environment that takes the stress away from what we were dealing with at our home. The in-room stove tops were a plus. It was nice to have a cooked meal after being away from our kitchen for so long. I highly recommend this property for anyone that is looking for the next best thing to being at home.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is hands-down the friendliest staff of hotel employees I've ever experienced and I've stayed in plenty hotels from budget to luxury. Every person you pass either smiles, says hi, or starts conversation. I was so impressed that I let the General Manager know on our elevator ride together. Aside from that, we had a nice, comfortable stay following a horrible stay at Hampton Inn &amp; Suites down the street. We were out of our home for several weeks due to renovations to our home following a kitchen fire. As if that situation isn't stressful enough, it's nice to be in a warm, kid-friendly environment that takes the stress away from what we were dealing with at our home. The in-room stove tops were a plus. It was nice to have a cooked meal after being away from our kitchen for so long. I highly recommend this property for anyone that is looking for the next best thing to being at home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r455749420-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>455749420</t>
+  </si>
+  <si>
+    <t>01/29/2017</t>
+  </si>
+  <si>
+    <t>best hotell on the westbank</t>
+  </si>
+  <si>
+    <t>best hotell on the westbank well be returning Everything is top notch at this hotel! The staff was very friendly and enjoyable to talk too! The rooms are clean and very comfortable...I will be retuning soon</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r452494134-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>452494134</t>
+  </si>
+  <si>
+    <t>01/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New Favorite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First time at a TownePlace Suite. Really loved the layout. Could see staying there long term if needed. This hotel was very clean, seemed new. The bed was VERY comfortable. The staff very friendly and helpful. Lots of restaurants nearby. Very easy quick drive to New Orleans, maybe7 minutes on weekend. Would definitely stay here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r450430063-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>450430063</t>
+  </si>
+  <si>
+    <t>01/08/2017</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>We stayed here one night and while the room (#413) was on the smaller side it did have a full sized fridge which was a very nice feature. The facility was well maintained and the room was clean. We stayed fairly high up so the noise level wasn't bad at all.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r447590147-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>447590147</t>
+  </si>
+  <si>
+    <t>12/29/2016</t>
+  </si>
+  <si>
+    <t>The staff, the rooms, the location...All Amazing!</t>
+  </si>
+  <si>
+    <t>Everything is top notch at this hotel!  The staff was very friendly and enjoyable to talk too! The rooms are clean and very comfortable. The location is right in the middle of shopping and restaurants!  Very please! We will be back!!!</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r447296820-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>447296820</t>
+  </si>
+  <si>
+    <t>12/28/2016</t>
+  </si>
+  <si>
+    <t>Downhill in less than a year</t>
+  </si>
+  <si>
+    <t>Visited this hotel in February 2016 and had a great experience so I decided to visit it again for our Christmas 2016 stay as well.  It is a new hotel, but they have foundation issues already.  I stayed in room 203 and the front door wouldn't even close.  Cracks were throughout the room and just as the front door wouldn't close securely, neither would the bathroom door.  To make things worst, they ran out of breakfast food each day...even at 7:30 AM on Christmas.  Breakfast was to be served until 9.  On the day of my last stay, they didn't even have food other than waffles. I went to breakfast at 7 am an nothing was available...not even milk.  I stayed at this hotel because of the experience I had in February, but that quickly diminished in December.   I don't think the experience is of the staff to blame, but more so on Management.  Per the staff, they don't order the food,  the management does and management didn't order enough food to accommodate the hotel.In regards to the horrible room....everyone knew that was a bad room, but the staff still offered it to me.  They need a hazardous sign on the door to that room.  DO NOT STAY IN 203.MoreShow less</t>
+  </si>
+  <si>
+    <t>Visited this hotel in February 2016 and had a great experience so I decided to visit it again for our Christmas 2016 stay as well.  It is a new hotel, but they have foundation issues already.  I stayed in room 203 and the front door wouldn't even close.  Cracks were throughout the room and just as the front door wouldn't close securely, neither would the bathroom door.  To make things worst, they ran out of breakfast food each day...even at 7:30 AM on Christmas.  Breakfast was to be served until 9.  On the day of my last stay, they didn't even have food other than waffles. I went to breakfast at 7 am an nothing was available...not even milk.  I stayed at this hotel because of the experience I had in February, but that quickly diminished in December.   I don't think the experience is of the staff to blame, but more so on Management.  Per the staff, they don't order the food,  the management does and management didn't order enough food to accommodate the hotel.In regards to the horrible room....everyone knew that was a bad room, but the staff still offered it to me.  They need a hazardous sign on the door to that room.  DO NOT STAY IN 203.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r440720396-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>440720396</t>
+  </si>
+  <si>
+    <t>11/28/2016</t>
+  </si>
+  <si>
+    <t>Nice Suite with friendly staff</t>
+  </si>
+  <si>
+    <t>I found staff to be friendly and helpful.  Room was clean and bed was very comfortable. I found I forgot toothbrush and paste and after a call to front desk I had one delivered within minutes. I would be more than happy to visit TownPlace Suites again without hesitation and I would like to extend a special thanks to Christina and Taylor for making sure I had everything I could want or need.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Taylor M, General Manager at TownePlace Suites New Orleans Harvey/West Bank, responded to this reviewResponded November 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2016</t>
+  </si>
+  <si>
+    <t>I found staff to be friendly and helpful.  Room was clean and bed was very comfortable. I found I forgot toothbrush and paste and after a call to front desk I had one delivered within minutes. I would be more than happy to visit TownPlace Suites again without hesitation and I would like to extend a special thanks to Christina and Taylor for making sure I had everything I could want or need.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r440599422-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>440599422</t>
+  </si>
+  <si>
+    <t>Bayou Classic Experience</t>
+  </si>
+  <si>
+    <t>All Staff (Kudos to Jamie) were very helpful and extremely professional.  Lobby and exterior areas were professionally maintained!  Only area of concern was "NO DOOR",  leading from bedroom to "bathroom sink area" for privacy!MoreShow less</t>
+  </si>
+  <si>
+    <t>All Staff (Kudos to Jamie) were very helpful and extremely professional.  Lobby and exterior areas were professionally maintained!  Only area of concern was "NO DOOR",  leading from bedroom to "bathroom sink area" for privacy!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r433298977-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>433298977</t>
+  </si>
+  <si>
+    <t>10/31/2016</t>
+  </si>
+  <si>
+    <t>Not up to Marriott standards</t>
+  </si>
+  <si>
+    <t>We had two rooms for three nights. All the employees were very friendly, but that is about all the positives I can say. Room 206 had a dead roach laying on the ac.and the carpet was crusty as if it had not been properly cleaned in a long time, Room 208 was reasonably clean, but the housekeeping was terrible. We did not request our room to be cleaned on the second day, terrible mistake. W'hen we checked in we had less than a half roll of toilet paper, no big deal because I assumed there were other rolls in under the sink. On the second evening when we returned from NOLA, we needed to change the toilet paper out, guess what no toilet paper. I had to call the front desk to get paper. We requested our room to be cleaned on the third morning, Bed was made, but that is all that we could visibly see that was done. The coffee pot had not even been cleaned out. The toiletries had not been replenished and there was no shampoo. I called the front desk and asked for some, they said they would bring some up. After 45 minutes and no shampoo, I went to the front desk and there was no one there. After several minutes, I loudly said "hello" and a lady came out of the back room. I told her I had called 45 minutes ago for...We had two rooms for three nights. All the employees were very friendly, but that is about all the positives I can say. Room 206 had a dead roach laying on the ac.and the carpet was crusty as if it had not been properly cleaned in a long time, Room 208 was reasonably clean, but the housekeeping was terrible. We did not request our room to be cleaned on the second day, terrible mistake. W'hen we checked in we had less than a half roll of toilet paper, no big deal because I assumed there were other rolls in under the sink. On the second evening when we returned from NOLA, we needed to change the toilet paper out, guess what no toilet paper. I had to call the front desk to get paper. We requested our room to be cleaned on the third morning, Bed was made, but that is all that we could visibly see that was done. The coffee pot had not even been cleaned out. The toiletries had not been replenished and there was no shampoo. I called the front desk and asked for some, they said they would bring some up. After 45 minutes and no shampoo, I went to the front desk and there was no one there. After several minutes, I loudly said "hello" and a lady came out of the back room. I told her I had called 45 minutes ago for shampoo and had not received it yet. She said, "Who did you talk to?" I replied that I did not know, just whoever answered the phone. She replied, "Well it wasn't me." At one time that I was at the front desk another lady came up and said that her room had been cleaned, but they didn't leave any towels. This hotel has serious housekeeping problem.  On the third morning, a man came down the elevator into the lobby cursing and saying that his girlfriend had stabbed him. This is not a hotel I would stay at again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Taylor M, General Manager at TownePlace Suites New Orleans Harvey/West Bank, responded to this reviewResponded November 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2016</t>
+  </si>
+  <si>
+    <t>We had two rooms for three nights. All the employees were very friendly, but that is about all the positives I can say. Room 206 had a dead roach laying on the ac.and the carpet was crusty as if it had not been properly cleaned in a long time, Room 208 was reasonably clean, but the housekeeping was terrible. We did not request our room to be cleaned on the second day, terrible mistake. W'hen we checked in we had less than a half roll of toilet paper, no big deal because I assumed there were other rolls in under the sink. On the second evening when we returned from NOLA, we needed to change the toilet paper out, guess what no toilet paper. I had to call the front desk to get paper. We requested our room to be cleaned on the third morning, Bed was made, but that is all that we could visibly see that was done. The coffee pot had not even been cleaned out. The toiletries had not been replenished and there was no shampoo. I called the front desk and asked for some, they said they would bring some up. After 45 minutes and no shampoo, I went to the front desk and there was no one there. After several minutes, I loudly said "hello" and a lady came out of the back room. I told her I had called 45 minutes ago for...We had two rooms for three nights. All the employees were very friendly, but that is about all the positives I can say. Room 206 had a dead roach laying on the ac.and the carpet was crusty as if it had not been properly cleaned in a long time, Room 208 was reasonably clean, but the housekeeping was terrible. We did not request our room to be cleaned on the second day, terrible mistake. W'hen we checked in we had less than a half roll of toilet paper, no big deal because I assumed there were other rolls in under the sink. On the second evening when we returned from NOLA, we needed to change the toilet paper out, guess what no toilet paper. I had to call the front desk to get paper. We requested our room to be cleaned on the third morning, Bed was made, but that is all that we could visibly see that was done. The coffee pot had not even been cleaned out. The toiletries had not been replenished and there was no shampoo. I called the front desk and asked for some, they said they would bring some up. After 45 minutes and no shampoo, I went to the front desk and there was no one there. After several minutes, I loudly said "hello" and a lady came out of the back room. I told her I had called 45 minutes ago for shampoo and had not received it yet. She said, "Who did you talk to?" I replied that I did not know, just whoever answered the phone. She replied, "Well it wasn't me." At one time that I was at the front desk another lady came up and said that her room had been cleaned, but they didn't leave any towels. This hotel has serious housekeeping problem.  On the third morning, a man came down the elevator into the lobby cursing and saying that his girlfriend had stabbed him. This is not a hotel I would stay at again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r432788626-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>432788626</t>
+  </si>
+  <si>
+    <t>10/29/2016</t>
+  </si>
+  <si>
+    <t>Nice King Suite with Kitchen</t>
+  </si>
+  <si>
+    <t>This is the first time we’ve stayed in a TownePlace Suites, and we were impressed. The studio room had a king bed, sofa bed, desk and a fully equipped kitchen complete with a small stovetop, refrigerator, microwave and dishwasher. The only tradeoff was that instead of a dresser, there was a large closet with shelves and baskets. The free breakfast was a plus, although the selection was limited. The staff was extremely friendly and courteous. We would stay here again when we are back in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Taylor M, General Manager at TownePlace Suites New Orleans Harvey/West Bank, responded to this reviewResponded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2016</t>
+  </si>
+  <si>
+    <t>This is the first time we’ve stayed in a TownePlace Suites, and we were impressed. The studio room had a king bed, sofa bed, desk and a fully equipped kitchen complete with a small stovetop, refrigerator, microwave and dishwasher. The only tradeoff was that instead of a dresser, there was a large closet with shelves and baskets. The free breakfast was a plus, although the selection was limited. The staff was extremely friendly and courteous. We would stay here again when we are back in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r432529699-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>432529699</t>
+  </si>
+  <si>
+    <t>10/28/2016</t>
+  </si>
+  <si>
+    <t>Horrible Staff</t>
+  </si>
+  <si>
+    <t>Staff member lied on me saying I made threats which was 1000% a lie &amp; management was nowhere to be found once they were informed which was a day later they didn't even hear my side of the story they just canceled my reservation and has yet to apologize or make me (the customer) feel protected... Very disappointed and I will never stay with any hotel associated with MarriottMoreShow less</t>
+  </si>
+  <si>
+    <t>Staff member lied on me saying I made threats which was 1000% a lie &amp; management was nowhere to be found once they were informed which was a day later they didn't even hear my side of the story they just canceled my reservation and has yet to apologize or make me (the customer) feel protected... Very disappointed and I will never stay with any hotel associated with MarriottMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r429497187-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>429497187</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>Great room, great service, easy access to New Orleans</t>
+  </si>
+  <si>
+    <t>This was our first visit to this hotel which is a Marriott Property.  We definitely made a great choice. You can tell upon entering that the property is pretty new. (Opened in Jan 2016) 
+* Parking was ample and free
+* The night staff was very attentive with helping us get checked in and finding an eatery that might be open at 10 pm.
+* The room was nice and comfy and 
+ it accommodated a sofa and kitchenette.
+* Complimentary hot breakfast was acceptable. The same fried egg circles (interesting) and sausage both days we were there.  Also had a fair assortment of yogurts, juices, muffins, breads, Belgian waffle makers, cereals, oatmeal and toppings for all.  Although self serve area is quite small. Awkward setup for plates, bowls, utensils. 
+* Several staff members in particular stood out for us, Jaime, Toi &amp; Diana. They remembered our names and used them to greet us whenever we came through. Always asked if there was anything we needed.  We saw several other staff and they were all very kind.
+* You can walk to Copeland's of New Orleans right across the street. Fantastic NOLA style food, fair prices, great portion size.
+* Minutes from the French Quarter and the New Orleans Central Business District. Save yourself the hassle and additional parking cost and stay here, you will love it!
+* We thought the location seemed very safe, you could easily walk to local businesses and restaurants.
+*...This was our first visit to this hotel which is a Marriott Property.  We definitely made a great choice. You can tell upon entering that the property is pretty new. (Opened in Jan 2016) * Parking was ample and free* The night staff was very attentive with helping us get checked in and finding an eatery that might be open at 10 pm.* The room was nice and comfy and  it accommodated a sofa and kitchenette.* Complimentary hot breakfast was acceptable. The same fried egg circles (interesting) and sausage both days we were there.  Also had a fair assortment of yogurts, juices, muffins, breads, Belgian waffle makers, cereals, oatmeal and toppings for all.  Although self serve area is quite small. Awkward setup for plates, bowls, utensils. * Several staff members in particular stood out for us, Jaime, Toi &amp; Diana. They remembered our names and used them to greet us whenever we came through. Always asked if there was anything we needed.  We saw several other staff and they were all very kind.* You can walk to Copeland's of New Orleans right across the street. Fantastic NOLA style food, fair prices, great portion size.* Minutes from the French Quarter and the New Orleans Central Business District. Save yourself the hassle and additional parking cost and stay here, you will love it!* We thought the location seemed very safe, you could easily walk to local businesses and restaurants.* Lovely bathroom and Container Store designed closet area.Property was very clean, nice decor, great lobby areas, Workout room was a nice size with decent equipment although we did not have time to use it.  We were there during the week so there was no crowding in the lobby/breakfast areas. Can't imagine the busy weekend crowd getting in and out of breakfast quickly though.They have a seating area for guest grilling and it accommodates smokers but it is just right outside of front door. I can see where that may be an issue if you are all dressed up to go out and have to walk through that to get to your car.The front of hotel has a couple of steps to navigate.  The ramp that comes out of the front door of hotel is diverted to the left or right and continues down through the handicapped parking lanes. There is no ramp access directly in front of the entryway for wheelchairs or luggage cart.  All that said, we will definitely stay at this property again and hope that they not only read comments and suggestions but take the opportunity to improve based on guests opinions.  Especially if there is a consensus of the same opinions.MoreShow less</t>
+  </si>
+  <si>
+    <t>Taylor M, General Manager at TownePlace Suites New Orleans Harvey/West Bank, responded to this reviewResponded October 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2016</t>
+  </si>
+  <si>
+    <t>This was our first visit to this hotel which is a Marriott Property.  We definitely made a great choice. You can tell upon entering that the property is pretty new. (Opened in Jan 2016) 
+* Parking was ample and free
+* The night staff was very attentive with helping us get checked in and finding an eatery that might be open at 10 pm.
+* The room was nice and comfy and 
+ it accommodated a sofa and kitchenette.
+* Complimentary hot breakfast was acceptable. The same fried egg circles (interesting) and sausage both days we were there.  Also had a fair assortment of yogurts, juices, muffins, breads, Belgian waffle makers, cereals, oatmeal and toppings for all.  Although self serve area is quite small. Awkward setup for plates, bowls, utensils. 
+* Several staff members in particular stood out for us, Jaime, Toi &amp; Diana. They remembered our names and used them to greet us whenever we came through. Always asked if there was anything we needed.  We saw several other staff and they were all very kind.
+* You can walk to Copeland's of New Orleans right across the street. Fantastic NOLA style food, fair prices, great portion size.
+* Minutes from the French Quarter and the New Orleans Central Business District. Save yourself the hassle and additional parking cost and stay here, you will love it!
+* We thought the location seemed very safe, you could easily walk to local businesses and restaurants.
+*...This was our first visit to this hotel which is a Marriott Property.  We definitely made a great choice. You can tell upon entering that the property is pretty new. (Opened in Jan 2016) * Parking was ample and free* The night staff was very attentive with helping us get checked in and finding an eatery that might be open at 10 pm.* The room was nice and comfy and  it accommodated a sofa and kitchenette.* Complimentary hot breakfast was acceptable. The same fried egg circles (interesting) and sausage both days we were there.  Also had a fair assortment of yogurts, juices, muffins, breads, Belgian waffle makers, cereals, oatmeal and toppings for all.  Although self serve area is quite small. Awkward setup for plates, bowls, utensils. * Several staff members in particular stood out for us, Jaime, Toi &amp; Diana. They remembered our names and used them to greet us whenever we came through. Always asked if there was anything we needed.  We saw several other staff and they were all very kind.* You can walk to Copeland's of New Orleans right across the street. Fantastic NOLA style food, fair prices, great portion size.* Minutes from the French Quarter and the New Orleans Central Business District. Save yourself the hassle and additional parking cost and stay here, you will love it!* We thought the location seemed very safe, you could easily walk to local businesses and restaurants.* Lovely bathroom and Container Store designed closet area.Property was very clean, nice decor, great lobby areas, Workout room was a nice size with decent equipment although we did not have time to use it.  We were there during the week so there was no crowding in the lobby/breakfast areas. Can't imagine the busy weekend crowd getting in and out of breakfast quickly though.They have a seating area for guest grilling and it accommodates smokers but it is just right outside of front door. I can see where that may be an issue if you are all dressed up to go out and have to walk through that to get to your car.The front of hotel has a couple of steps to navigate.  The ramp that comes out of the front door of hotel is diverted to the left or right and continues down through the handicapped parking lanes. There is no ramp access directly in front of the entryway for wheelchairs or luggage cart.  All that said, we will definitely stay at this property again and hope that they not only read comments and suggestions but take the opportunity to improve based on guests opinions.  Especially if there is a consensus of the same opinions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r428854790-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>428854790</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Across the river from all the action</t>
+  </si>
+  <si>
+    <t>Stayed here 2 nights in a 2 bedroom suite. Was a clean and comfortable room that gave all of us room to spread out. Friendly staff. Plenty of seating and breakfast was adequate although I was a little turned off by hotel staff sitting in the corner and their use of foul language with little children around eating. There are several restaurants and shopping areas close by. Washers and dryers are available for $1.25 per load. I wish the smoking courtyard was further away from the entrance. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here 2 nights in a 2 bedroom suite. Was a clean and comfortable room that gave all of us room to spread out. Friendly staff. Plenty of seating and breakfast was adequate although I was a little turned off by hotel staff sitting in the corner and their use of foul language with little children around eating. There are several restaurants and shopping areas close by. Washers and dryers are available for $1.25 per load. I wish the smoking courtyard was further away from the entrance. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r423939498-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>423939498</t>
+  </si>
+  <si>
+    <t>09/30/2016</t>
+  </si>
+  <si>
+    <t>Small Room And Thin Walls</t>
+  </si>
+  <si>
+    <t>Appears to be a newer hotel. Outside modern and landscaped. However, smoking area is right at the front entrance. So, greeted by the smell of old cigarettes and second hand smoke. Front desk staff was helpful and friendly.  Room was decorated in a modern design. Room was clean and comfortable, but small. I couldn't see being comfortable if I had someone traveling with me. Sort of reminded me of a college dorm room. Wall must be thin cause lots of noise heard from other rooms. Things calmed down between 11:00 and 12:00 PM. Breakfast was below average. Limited choices and what were those fried egg things. Hope they found the key to the juice machine.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Taylor M, General Manager at TownePlace Suites New Orleans Harvey/West Bank, responded to this reviewResponded October 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2016</t>
+  </si>
+  <si>
+    <t>Appears to be a newer hotel. Outside modern and landscaped. However, smoking area is right at the front entrance. So, greeted by the smell of old cigarettes and second hand smoke. Front desk staff was helpful and friendly.  Room was decorated in a modern design. Room was clean and comfortable, but small. I couldn't see being comfortable if I had someone traveling with me. Sort of reminded me of a college dorm room. Wall must be thin cause lots of noise heard from other rooms. Things calmed down between 11:00 and 12:00 PM. Breakfast was below average. Limited choices and what were those fried egg things. Hope they found the key to the juice machine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r413403128-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>413403128</t>
+  </si>
+  <si>
+    <t>09/01/2016</t>
+  </si>
+  <si>
+    <t>AWESOME</t>
+  </si>
+  <si>
+    <t>I had a very pleasing time on my vacation and and stay here. I found the greatest part was anything I needed from my stay at Townplace suites Marriott was the staff but the one person who helped me the most and was EXTREMELY awesome was the young lady Jamie Alexie that works at the front desk. She went above and beyond her duties, She was so helpful I made sure to collect her name so I may send her a thank you. I very much recommend staying here....... I HAD A WONDERFUL STAY MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Taylor M, General Manager at TownePlace Suites New Orleans Harvey/West Bank, responded to this reviewResponded September 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2016</t>
+  </si>
+  <si>
+    <t>I had a very pleasing time on my vacation and and stay here. I found the greatest part was anything I needed from my stay at Townplace suites Marriott was the staff but the one person who helped me the most and was EXTREMELY awesome was the young lady Jamie Alexie that works at the front desk. She went above and beyond her duties, She was so helpful I made sure to collect her name so I may send her a thank you. I very much recommend staying here....... I HAD A WONDERFUL STAY More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r403863411-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>403863411</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>Clean, Quiet and Great Value</t>
+  </si>
+  <si>
+    <t>Stayed three nights in a spacious two-bedroom room suite. The property is new and clean. Comfortable beds. TV's that could be a little bigger by current hotel expectations.
+Great location just 15 minutes to the Warehouse/Arts district and the WWII Museum and 20 minutes to the French Quarter. Free parking was essential for us and impossible to find with any centrally located hotel in the city. We also appreciated being out of the noise, but with immediate access to the urban/suburban amenities of Target and Walmart, all the national fast food chains, plus Barnes &amp; Noble, World Market, Best Buy five minutes up the road. Copelands of New Orleans restaurant is just across Manhattan (the main street, as Central is just a side street).
+As others have noted, the breakfast is the weak spot. If you don't mind your microwaved fake fried eggs tough and your microwaves sausage patties like hockey pucks (reasonably tasty hockey pucks if you get one that is soft enough), even right out of the food preparation area and you (or your kids) don't want cold cereal as an option and you're okay with apple juice that is just way too concentrated (without any water available to cut it), in an area not quite big enough for two people at same time, you'll be okay. Great oatmeal, with lots of little fixings for it, a waffle iron, yogurt, bagels and mini-muffins aplenty, and lots of room...Stayed three nights in a spacious two-bedroom room suite. The property is new and clean. Comfortable beds. TV's that could be a little bigger by current hotel expectations.Great location just 15 minutes to the Warehouse/Arts district and the WWII Museum and 20 minutes to the French Quarter. Free parking was essential for us and impossible to find with any centrally located hotel in the city. We also appreciated being out of the noise, but with immediate access to the urban/suburban amenities of Target and Walmart, all the national fast food chains, plus Barnes &amp; Noble, World Market, Best Buy five minutes up the road. Copelands of New Orleans restaurant is just across Manhattan (the main street, as Central is just a side street).As others have noted, the breakfast is the weak spot. If you don't mind your microwaved fake fried eggs tough and your microwaves sausage patties like hockey pucks (reasonably tasty hockey pucks if you get one that is soft enough), even right out of the food preparation area and you (or your kids) don't want cold cereal as an option and you're okay with apple juice that is just way too concentrated (without any water available to cut it), in an area not quite big enough for two people at same time, you'll be okay. Great oatmeal, with lots of little fixings for it, a waffle iron, yogurt, bagels and mini-muffins aplenty, and lots of room once you sit down to eat.The upside: you have a full kitchen (no conventional oven, but a good microwave above the stove). There are also grills available outside. The staff is very helpful.The pluses far outweigh the minuses. If we return to New Orleans, this will be the place the will stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Taylor M, General Manager at TownePlace Suites New Orleans Harvey/West Bank, responded to this reviewResponded August 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2016</t>
+  </si>
+  <si>
+    <t>Stayed three nights in a spacious two-bedroom room suite. The property is new and clean. Comfortable beds. TV's that could be a little bigger by current hotel expectations.
+Great location just 15 minutes to the Warehouse/Arts district and the WWII Museum and 20 minutes to the French Quarter. Free parking was essential for us and impossible to find with any centrally located hotel in the city. We also appreciated being out of the noise, but with immediate access to the urban/suburban amenities of Target and Walmart, all the national fast food chains, plus Barnes &amp; Noble, World Market, Best Buy five minutes up the road. Copelands of New Orleans restaurant is just across Manhattan (the main street, as Central is just a side street).
+As others have noted, the breakfast is the weak spot. If you don't mind your microwaved fake fried eggs tough and your microwaves sausage patties like hockey pucks (reasonably tasty hockey pucks if you get one that is soft enough), even right out of the food preparation area and you (or your kids) don't want cold cereal as an option and you're okay with apple juice that is just way too concentrated (without any water available to cut it), in an area not quite big enough for two people at same time, you'll be okay. Great oatmeal, with lots of little fixings for it, a waffle iron, yogurt, bagels and mini-muffins aplenty, and lots of room...Stayed three nights in a spacious two-bedroom room suite. The property is new and clean. Comfortable beds. TV's that could be a little bigger by current hotel expectations.Great location just 15 minutes to the Warehouse/Arts district and the WWII Museum and 20 minutes to the French Quarter. Free parking was essential for us and impossible to find with any centrally located hotel in the city. We also appreciated being out of the noise, but with immediate access to the urban/suburban amenities of Target and Walmart, all the national fast food chains, plus Barnes &amp; Noble, World Market, Best Buy five minutes up the road. Copelands of New Orleans restaurant is just across Manhattan (the main street, as Central is just a side street).As others have noted, the breakfast is the weak spot. If you don't mind your microwaved fake fried eggs tough and your microwaves sausage patties like hockey pucks (reasonably tasty hockey pucks if you get one that is soft enough), even right out of the food preparation area and you (or your kids) don't want cold cereal as an option and you're okay with apple juice that is just way too concentrated (without any water available to cut it), in an area not quite big enough for two people at same time, you'll be okay. Great oatmeal, with lots of little fixings for it, a waffle iron, yogurt, bagels and mini-muffins aplenty, and lots of room once you sit down to eat.The upside: you have a full kitchen (no conventional oven, but a good microwave above the stove). There are also grills available outside. The staff is very helpful.The pluses far outweigh the minuses. If we return to New Orleans, this will be the place the will stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r396959361-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>396959361</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Excellent Value</t>
+  </si>
+  <si>
+    <t>Excellent value for a two bedroom suite. Just needed accomodations for one night after checking out of another hotel(initials H I) which refused to give an additional night to us at the group rate. Perfect accomodations for even a family of 5 or 6.Room was spotless with amenities of home.Staff very accomodating and friendly. Less than a year old as everything was in excellent working  condition. 3 tvs. Lots of closets. Full size refrigerator ...Close enough to downtown . I'd stay here next time especially if traveling with another couple or with several children.My cousin loved the set up as she had never stayed at a Towneplace Marriott. She was happy to have her privacy.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Taylor M, General Manager at TownePlace Suites New Orleans Harvey/West Bank, responded to this reviewResponded July 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2016</t>
+  </si>
+  <si>
+    <t>Excellent value for a two bedroom suite. Just needed accomodations for one night after checking out of another hotel(initials H I) which refused to give an additional night to us at the group rate. Perfect accomodations for even a family of 5 or 6.Room was spotless with amenities of home.Staff very accomodating and friendly. Less than a year old as everything was in excellent working  condition. 3 tvs. Lots of closets. Full size refrigerator ...Close enough to downtown . I'd stay here next time especially if traveling with another couple or with several children.My cousin loved the set up as she had never stayed at a Towneplace Marriott. She was happy to have her privacy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r391921880-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>391921880</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>Pleasant Surprise!</t>
+  </si>
+  <si>
+    <t>I had the pleasure of staying at TownePlace July 8 -11. We had a one bedroom suite however, at the last minute needed an additional suite. The hotel staff was extremely friendly and tended to our every need. Very clean!   MoreShow less</t>
+  </si>
+  <si>
+    <t>Taylor M, General Manager at TownePlace Suites New Orleans Harvey/West Bank, responded to this reviewResponded July 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2016</t>
+  </si>
+  <si>
+    <t>I had the pleasure of staying at TownePlace July 8 -11. We had a one bedroom suite however, at the last minute needed an additional suite. The hotel staff was extremely friendly and tended to our every need. Very clean!   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r389890297-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>389890297</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>AWESOME PROPERTY - TERRIBLE BREAKFAST</t>
+  </si>
+  <si>
+    <t>This property is pretty new as it opened January 2016.  We went this past weekend for the Essence Festival and I will definitely share the pros and cons with you.  Let's start off with the positive:
+-This location was 10 to 15 minutes from New Orleans (Very Convenient)
+- The rate was fantastic for the accommodations that we received!
+-The Room was a two bedroom apartment with one bath room inclusive of modern furniture and decor...it was fabulous and the beds were extremely comfortable!
+-The Hotel was extremely Clean
+-The Staff was extremely helpful and friendly
+The Cons:
+-We saw a roach in the kitchenette of our room crawling on the stove.
+-The breakfast was horrible; as they only had three red bowls that they rotated among all guests.  I even suggested to management  to make a trip up the street to WALMART to get disposable bowls for the convenience of the guest. That didn't happen!
+-They ran out of waffle batter each morning I was there!
+-They ran out of breakfast meat every day I was there!
+-Instead of putting the paper plates and plastic wear on top of the counter where guest could easily see it..they kept it under the hot food counter...so I put it on top of the counter (which made more sense)...the next day it was back under the counter.
+-The Orange Juice Machine was out of order and instead of them putting a sign...This property is pretty new as it opened January 2016.  We went this past weekend for the Essence Festival and I will definitely share the pros and cons with you.  Let's start off with the positive:-This location was 10 to 15 minutes from New Orleans (Very Convenient)- The rate was fantastic for the accommodations that we received!-The Room was a two bedroom apartment with one bath room inclusive of modern furniture and decor...it was fabulous and the beds were extremely comfortable!-The Hotel was extremely Clean-The Staff was extremely helpful and friendlyThe Cons:-We saw a roach in the kitchenette of our room crawling on the stove.-The breakfast was horrible; as they only had three red bowls that they rotated among all guests.  I even suggested to management  to make a trip up the street to WALMART to get disposable bowls for the convenience of the guest. That didn't happen!-They ran out of waffle batter each morning I was there!-They ran out of breakfast meat every day I was there!-Instead of putting the paper plates and plastic wear on top of the counter where guest could easily see it..they kept it under the hot food counter...so I put it on top of the counter (which made more sense)...the next day it was back under the counter.-The Orange Juice Machine was out of order and instead of them putting a sign on the machine; they put apple juice in both the apple juice machine and orange juice machine.  When I asked the staff about putting up a sign, they claimed they forgot to put one up but they will.  It never happened!!! The young lady I spoke to told me they were temporarily out of the orange juice mix; while the first morning another staff member told me the machine was out of order.-The last day there was a week day so we called to see what time breakfast was over, and it was disclosed to us from the front desk that breakfast ended at 9:30am.  When we arrived at 9:15am, we were told there was no more food and they were not replenishing because breakfast ends at 9:30am.  -Several Guests were complaining among each other daily!!!  This foolishness had been going on all weekend since Friday.I was so livid that I was determined to speak to management about all of my concerns!  Though the GM refused to come out to hear my complaints, he did tell the front desk rep to give us a significant discount on our room which made us temporarily happy...but I felt sorry for the other guests that had to deal with the drama and were not bold enough to complain!  I won't be back to visit this location....please believe!I was very disappointed!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Taylor M, General Manager at TownePlace Suites New Orleans Harvey/West Bank, responded to this reviewResponded July 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2016</t>
+  </si>
+  <si>
+    <t>This property is pretty new as it opened January 2016.  We went this past weekend for the Essence Festival and I will definitely share the pros and cons with you.  Let's start off with the positive:
+-This location was 10 to 15 minutes from New Orleans (Very Convenient)
+- The rate was fantastic for the accommodations that we received!
+-The Room was a two bedroom apartment with one bath room inclusive of modern furniture and decor...it was fabulous and the beds were extremely comfortable!
+-The Hotel was extremely Clean
+-The Staff was extremely helpful and friendly
+The Cons:
+-We saw a roach in the kitchenette of our room crawling on the stove.
+-The breakfast was horrible; as they only had three red bowls that they rotated among all guests.  I even suggested to management  to make a trip up the street to WALMART to get disposable bowls for the convenience of the guest. That didn't happen!
+-They ran out of waffle batter each morning I was there!
+-They ran out of breakfast meat every day I was there!
+-Instead of putting the paper plates and plastic wear on top of the counter where guest could easily see it..they kept it under the hot food counter...so I put it on top of the counter (which made more sense)...the next day it was back under the counter.
+-The Orange Juice Machine was out of order and instead of them putting a sign...This property is pretty new as it opened January 2016.  We went this past weekend for the Essence Festival and I will definitely share the pros and cons with you.  Let's start off with the positive:-This location was 10 to 15 minutes from New Orleans (Very Convenient)- The rate was fantastic for the accommodations that we received!-The Room was a two bedroom apartment with one bath room inclusive of modern furniture and decor...it was fabulous and the beds were extremely comfortable!-The Hotel was extremely Clean-The Staff was extremely helpful and friendlyThe Cons:-We saw a roach in the kitchenette of our room crawling on the stove.-The breakfast was horrible; as they only had three red bowls that they rotated among all guests.  I even suggested to management  to make a trip up the street to WALMART to get disposable bowls for the convenience of the guest. That didn't happen!-They ran out of waffle batter each morning I was there!-They ran out of breakfast meat every day I was there!-Instead of putting the paper plates and plastic wear on top of the counter where guest could easily see it..they kept it under the hot food counter...so I put it on top of the counter (which made more sense)...the next day it was back under the counter.-The Orange Juice Machine was out of order and instead of them putting a sign on the machine; they put apple juice in both the apple juice machine and orange juice machine.  When I asked the staff about putting up a sign, they claimed they forgot to put one up but they will.  It never happened!!! The young lady I spoke to told me they were temporarily out of the orange juice mix; while the first morning another staff member told me the machine was out of order.-The last day there was a week day so we called to see what time breakfast was over, and it was disclosed to us from the front desk that breakfast ended at 9:30am.  When we arrived at 9:15am, we were told there was no more food and they were not replenishing because breakfast ends at 9:30am.  -Several Guests were complaining among each other daily!!!  This foolishness had been going on all weekend since Friday.I was so livid that I was determined to speak to management about all of my concerns!  Though the GM refused to come out to hear my complaints, he did tell the front desk rep to give us a significant discount on our room which made us temporarily happy...but I felt sorry for the other guests that had to deal with the drama and were not bold enough to complain!  I won't be back to visit this location....please believe!I was very disappointed!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r386788916-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>386788916</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiny Retreat close to the big city. </t>
+  </si>
+  <si>
+    <t>My family and I stayed here to be close to our teen daughter who was attending a convention in NOLA. The hotel is new construction. Everything was nice and clean. The rooms were smaller than what I anticipated, however the rooms were set up with lots of space saving features. There is an elfa closet system installed from the container store for ample organized closet storage. You also are provided with a laundry basket and the front desk supplies you with free laundry detergent if you want to use the onsite facilities near the gym to do your laundry. Washing costs $1.25 per load as does the dryer. I appreciated this convenience to wash a large load before we headed out to our next destination. The beds are comfy. The pull out sofa is perfect for the kids and you are provided with a comforter and decent think mattress. The television is a little smaller than what we are used to. (I think it's 27") the room comes with a fully equipped kitchen( fridge with ice maker, microwave, stovetop, coffee maker, toaster, dishwasher, pots, cups, plates, etc.)  The hotel pool was nice, albeit again on the smaller scale. 
+Breakfast is free and includes a good variety including blueberry and plain waffles, eggs, sausage, bagels, muffins and cereal. 
+The front desk staff was always so helpful and friendly- especially Diane. I would stay here again for sure. The only reason I...My family and I stayed here to be close to our teen daughter who was attending a convention in NOLA. The hotel is new construction. Everything was nice and clean. The rooms were smaller than what I anticipated, however the rooms were set up with lots of space saving features. There is an elfa closet system installed from the container store for ample organized closet storage. You also are provided with a laundry basket and the front desk supplies you with free laundry detergent if you want to use the onsite facilities near the gym to do your laundry. Washing costs $1.25 per load as does the dryer. I appreciated this convenience to wash a large load before we headed out to our next destination. The beds are comfy. The pull out sofa is perfect for the kids and you are provided with a comforter and decent think mattress. The television is a little smaller than what we are used to. (I think it's 27") the room comes with a fully equipped kitchen( fridge with ice maker, microwave, stovetop, coffee maker, toaster, dishwasher, pots, cups, plates, etc.)  The hotel pool was nice, albeit again on the smaller scale. Breakfast is free and includes a good variety including blueberry and plain waffles, eggs, sausage, bagels, muffins and cereal. The front desk staff was always so helpful and friendly- especially Diane. I would stay here again for sure. The only reason I rate this a 4 instead of 5 is the cramped size of the room. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Taylor M, General Manager at TownePlace Suites New Orleans Harvey/West Bank, responded to this reviewResponded June 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2016</t>
+  </si>
+  <si>
+    <t>My family and I stayed here to be close to our teen daughter who was attending a convention in NOLA. The hotel is new construction. Everything was nice and clean. The rooms were smaller than what I anticipated, however the rooms were set up with lots of space saving features. There is an elfa closet system installed from the container store for ample organized closet storage. You also are provided with a laundry basket and the front desk supplies you with free laundry detergent if you want to use the onsite facilities near the gym to do your laundry. Washing costs $1.25 per load as does the dryer. I appreciated this convenience to wash a large load before we headed out to our next destination. The beds are comfy. The pull out sofa is perfect for the kids and you are provided with a comforter and decent think mattress. The television is a little smaller than what we are used to. (I think it's 27") the room comes with a fully equipped kitchen( fridge with ice maker, microwave, stovetop, coffee maker, toaster, dishwasher, pots, cups, plates, etc.)  The hotel pool was nice, albeit again on the smaller scale. 
+Breakfast is free and includes a good variety including blueberry and plain waffles, eggs, sausage, bagels, muffins and cereal. 
+The front desk staff was always so helpful and friendly- especially Diane. I would stay here again for sure. The only reason I...My family and I stayed here to be close to our teen daughter who was attending a convention in NOLA. The hotel is new construction. Everything was nice and clean. The rooms were smaller than what I anticipated, however the rooms were set up with lots of space saving features. There is an elfa closet system installed from the container store for ample organized closet storage. You also are provided with a laundry basket and the front desk supplies you with free laundry detergent if you want to use the onsite facilities near the gym to do your laundry. Washing costs $1.25 per load as does the dryer. I appreciated this convenience to wash a large load before we headed out to our next destination. The beds are comfy. The pull out sofa is perfect for the kids and you are provided with a comforter and decent think mattress. The television is a little smaller than what we are used to. (I think it's 27") the room comes with a fully equipped kitchen( fridge with ice maker, microwave, stovetop, coffee maker, toaster, dishwasher, pots, cups, plates, etc.)  The hotel pool was nice, albeit again on the smaller scale. Breakfast is free and includes a good variety including blueberry and plain waffles, eggs, sausage, bagels, muffins and cereal. The front desk staff was always so helpful and friendly- especially Diane. I would stay here again for sure. The only reason I rate this a 4 instead of 5 is the cramped size of the room. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r384392274-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>384392274</t>
+  </si>
+  <si>
+    <t>06/20/2016</t>
+  </si>
+  <si>
+    <t>fresh hotel, don't depend on the free breaksfast</t>
+  </si>
+  <si>
+    <t>We had 2 hotel rooms that were both clean and looked fresh.  The location is good because it's easy to get to the French Quarter and there's multiple restaurants close by.  Only complaint is the breakfast.  Now I'm not looking for a great breakfast spread and I expect most of the free breakfast areas to be fairly crowded unless you get there early.  But this place had plenty of space to add more seating, ran out of milk every day by 8:30 and I had to ask and wait for the coffee to be refilled every day.  I've stayed at multiple Marriott properties run much more efficiently in less space and don't understand why this place couldn't keep things stocked.  They seemed unprepared for the crowd, but should know better.MoreShow less</t>
+  </si>
+  <si>
+    <t>Taylor M, General Manager at TownePlace Suites New Orleans Harvey/West Bank, responded to this reviewResponded June 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2016</t>
+  </si>
+  <si>
+    <t>We had 2 hotel rooms that were both clean and looked fresh.  The location is good because it's easy to get to the French Quarter and there's multiple restaurants close by.  Only complaint is the breakfast.  Now I'm not looking for a great breakfast spread and I expect most of the free breakfast areas to be fairly crowded unless you get there early.  But this place had plenty of space to add more seating, ran out of milk every day by 8:30 and I had to ask and wait for the coffee to be refilled every day.  I've stayed at multiple Marriott properties run much more efficiently in less space and don't understand why this place couldn't keep things stocked.  They seemed unprepared for the crowd, but should know better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r382251265-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>382251265</t>
+  </si>
+  <si>
+    <t>06/13/2016</t>
+  </si>
+  <si>
+    <t>Will stay here again!</t>
+  </si>
+  <si>
+    <t>My wife and I had a one night stop by New Orleans. We used to stay at French quarter district but this time we decide to choose another place since the parking fee is ridiculously high. Though the location is kind of remote, we found this place is totally a surprise.Spacious, quiet and clean. Bathroom is wonderful! MoreShow less</t>
+  </si>
+  <si>
+    <t>Taylor M, General Manager at TownePlace Suites New Orleans Harvey/West Bank, responded to this reviewResponded June 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2016</t>
+  </si>
+  <si>
+    <t>My wife and I had a one night stop by New Orleans. We used to stay at French quarter district but this time we decide to choose another place since the parking fee is ridiculously high. Though the location is kind of remote, we found this place is totally a surprise.Spacious, quiet and clean. Bathroom is wonderful! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r374833204-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>374833204</t>
+  </si>
+  <si>
+    <t>05/20/2016</t>
+  </si>
+  <si>
+    <t>clean &amp; new hotel</t>
+  </si>
+  <si>
+    <t>This hotel is clearly brand new - it's very clean, the rooms are spacious and modern. The front desk staff seemed nice and made the check in/out process easy. The beds were actually pretty comfortable. Location wise  its about a 15-20 min drive into the city and there are some restaurants and stores around the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Taylor M, General Manager at TownePlace Suites New Orleans Harvey/West Bank, responded to this reviewResponded May 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is clearly brand new - it's very clean, the rooms are spacious and modern. The front desk staff seemed nice and made the check in/out process easy. The beds were actually pretty comfortable. Location wise  its about a 15-20 min drive into the city and there are some restaurants and stores around the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r373043300-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>373043300</t>
+  </si>
+  <si>
+    <t>05/15/2016</t>
+  </si>
+  <si>
+    <t>A Very Nice Freshly Built Hotel, but Breakfast was terrible</t>
+  </si>
+  <si>
+    <t>First time staying at TOWNEPLACE in Harvey/ WestBank, the experience was okay there are a few things about this NEW hotel that my wife and I agree on. Starting with breakfast, they feed you out of paper plates,  this a Marriott hotel, a upscale chain and we where eating breakfast that wasn't good out of paper plates.  On top of that, the hotel was full during breakfast at we all where bunched up together in very very small not well thought out design of a eating area with not enough seating area trying to fix food and good. I do think The Marriott can do better n give up paying customers nice China to eat out of. I would stay here again but will eat breakfast from somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>Taylor M, General Manager at TownePlace Suites New Orleans Harvey/West Bank, responded to this reviewResponded May 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2016</t>
+  </si>
+  <si>
+    <t>First time staying at TOWNEPLACE in Harvey/ WestBank, the experience was okay there are a few things about this NEW hotel that my wife and I agree on. Starting with breakfast, they feed you out of paper plates,  this a Marriott hotel, a upscale chain and we where eating breakfast that wasn't good out of paper plates.  On top of that, the hotel was full during breakfast at we all where bunched up together in very very small not well thought out design of a eating area with not enough seating area trying to fix food and good. I do think The Marriott can do better n give up paying customers nice China to eat out of. I would stay here again but will eat breakfast from somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r370597407-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>370597407</t>
+  </si>
+  <si>
+    <t>05/06/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice and comfortable </t>
+  </si>
+  <si>
+    <t>My husband and I stayed for a week in April during the jazz festival.   It was alot cheaper to stay on the west bank. This property is pretty new.  It's very clean and quiet.  We stayed in a one bedroom suite that was clean and nicely decorated.  The bedroom is pretty small and I would have preferred a King size bed but it was very comfortable.   The hotel is conveniently located across the street from a nice restaurant. There is also free breakfast offered every morning which I enjoyed.  I wish I could have used the pool but there weren't any lounge chairs available yet, I was told by the front desk that they hadn't come on yet.  If I ever decide to vacation in New Orleans again I will definitely consider this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Taylor M, General Manager at TownePlace Suites New Orleans Harvey/West Bank, responded to this reviewResponded May 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2016</t>
+  </si>
+  <si>
+    <t>My husband and I stayed for a week in April during the jazz festival.   It was alot cheaper to stay on the west bank. This property is pretty new.  It's very clean and quiet.  We stayed in a one bedroom suite that was clean and nicely decorated.  The bedroom is pretty small and I would have preferred a King size bed but it was very comfortable.   The hotel is conveniently located across the street from a nice restaurant. There is also free breakfast offered every morning which I enjoyed.  I wish I could have used the pool but there weren't any lounge chairs available yet, I was told by the front desk that they hadn't come on yet.  If I ever decide to vacation in New Orleans again I will definitely consider this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r363673171-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>363673171</t>
+  </si>
+  <si>
+    <t>04/12/2016</t>
+  </si>
+  <si>
+    <t>Cozy and convenient</t>
+  </si>
+  <si>
+    <t>Good location. ~15 mins to the French and ~20 mins to Garden district. Neat and nice room with affordable pricing. Staffs are friendly. Parking are convenient. Highly recommend this place. Not that much good restaurant nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>Taylor M, General Manager at TownePlace Suites New Orleans Harvey/West Bank, responded to this reviewResponded April 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2016</t>
+  </si>
+  <si>
+    <t>Good location. ~15 mins to the French and ~20 mins to Garden district. Neat and nice room with affordable pricing. Staffs are friendly. Parking are convenient. Highly recommend this place. Not that much good restaurant nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r358414043-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>358414043</t>
+  </si>
+  <si>
+    <t>03/25/2016</t>
+  </si>
+  <si>
+    <t>Quick and convenient</t>
+  </si>
+  <si>
+    <t>I stayed in February of 2016. I was there for only a short time but the gentleman who worked overnight and the manager I met the next morning were nice. Breakfast was great because I was hungover and needed to eat. We got there a little late, but the breakfast staff still let me eat. Thank you because I was...very tired :). Great place to stay with friendly people. I will be back again and have told my friends about this place. We go to a few concerts every year and I think this may be our safe haven after a night of drinking. Free parking as well which was great. I did lose my car keys somewhere in the parking lot so if any keys were found I would be really happy if someone contacted me about it.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Taylor M, General Manager at TownePlace Suites New Orleans Harvey/West Bank, responded to this reviewResponded March 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2016</t>
+  </si>
+  <si>
+    <t>I stayed in February of 2016. I was there for only a short time but the gentleman who worked overnight and the manager I met the next morning were nice. Breakfast was great because I was hungover and needed to eat. We got there a little late, but the breakfast staff still let me eat. Thank you because I was...very tired :). Great place to stay with friendly people. I will be back again and have told my friends about this place. We go to a few concerts every year and I think this may be our safe haven after a night of drinking. Free parking as well which was great. I did lose my car keys somewhere in the parking lot so if any keys were found I would be really happy if someone contacted me about it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r358130568-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>358130568</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>Don't depend on coffee or breakfast as advertised.</t>
+  </si>
+  <si>
+    <t>Day 1 no coffee cups, waffle maker with no batter and 2 empty warm plates, Day2 a half a cup of coffee, Day3 no coffee at all even after 30 minute wait at 730 in the morning. Staff is not concerned about anything and the hotel is new, so bring your own coffee and suck it up. I have one more day to complete my reservation and hope never to miss a Fairfield Inn and Suites again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Taylor M, General Manager at TownePlace Suites New Orleans Harvey/West Bank, responded to this reviewResponded March 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2016</t>
+  </si>
+  <si>
+    <t>Day 1 no coffee cups, waffle maker with no batter and 2 empty warm plates, Day2 a half a cup of coffee, Day3 no coffee at all even after 30 minute wait at 730 in the morning. Staff is not concerned about anything and the hotel is new, so bring your own coffee and suck it up. I have one more day to complete my reservation and hope never to miss a Fairfield Inn and Suites again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r356676988-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>356676988</t>
+  </si>
+  <si>
+    <t>03/18/2016</t>
+  </si>
+  <si>
+    <t>Neat and clean</t>
+  </si>
+  <si>
+    <t>Excellent place to stay with great staff including housekeeping staff... Very clean place. Convenient location! Inclusive breakfast is not so great in terms of options but considering that this place is newly constructed I am sure they would be making changes...Overall lovely experience!Laundry, kitchenette , pool and grill on site and they were all very clean ...MoreShow less</t>
+  </si>
+  <si>
+    <t>Taylor M, General Manager at TownePlace Suites New Orleans Harvey/West Bank, responded to this reviewResponded March 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2016</t>
+  </si>
+  <si>
+    <t>Excellent place to stay with great staff including housekeeping staff... Very clean place. Convenient location! Inclusive breakfast is not so great in terms of options but considering that this place is newly constructed I am sure they would be making changes...Overall lovely experience!Laundry, kitchenette , pool and grill on site and they were all very clean ...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r355377998-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>355377998</t>
+  </si>
+  <si>
+    <t>03/14/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Property Facing Challenges </t>
+  </si>
+  <si>
+    <t>I was originally scheduled to spend 6 nights at this location. Once i got to the area immediately surrounding the area i started to question where i was. I did notice some mid level restaurants in the area, but i also noticed several low income apartment complexes and a couple people walking the street in pajamas. Upon check in, my room key didnt work 3 times. Toy was very nice and did her best to accommodate while the system wouldnt work. I was not greated as a Gold member and didnt even get a bottle of water. I will say the property is new and clean, but i cant say that i would feel safe bringing my family to this area. The decision to move to another Marriott property was made pretty quickly and i relocated the following day. MoreShow less</t>
+  </si>
+  <si>
+    <t>Taylor M, General Manager at TownePlace Suites New Orleans Harvey/West Bank, responded to this reviewResponded March 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2016</t>
+  </si>
+  <si>
+    <t>I was originally scheduled to spend 6 nights at this location. Once i got to the area immediately surrounding the area i started to question where i was. I did notice some mid level restaurants in the area, but i also noticed several low income apartment complexes and a couple people walking the street in pajamas. Upon check in, my room key didnt work 3 times. Toy was very nice and did her best to accommodate while the system wouldnt work. I was not greated as a Gold member and didnt even get a bottle of water. I will say the property is new and clean, but i cant say that i would feel safe bringing my family to this area. The decision to move to another Marriott property was made pretty quickly and i relocated the following day. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40209-d9798142-r354452710-TownePlace_Suites_New_Orleans_Harvey_West_Bank-Harvey_Louisiana.html</t>
+  </si>
+  <si>
+    <t>354452710</t>
+  </si>
+  <si>
+    <t>03/10/2016</t>
+  </si>
+  <si>
+    <t>Great Stay! New Hotel!</t>
+  </si>
+  <si>
+    <t>This hotel is new. I booked a room in December for February and was surprised that this hotel came up. I have stayed on the West Bank a few times and decided to give this place a try. My room had a kitchen in it (I'm not sure if that is all the rooms or not). It was excellent and a short distance from downtown. I was there for 3 days and everyone was very friendly. Breakfast was complimentary and was okay. The breakfast lady who was there was extremely helpful. She was able to get me printed direction to the French Quarter for my wife and I. I had a great time and will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is new. I booked a room in December for February and was surprised that this hotel came up. I have stayed on the West Bank a few times and decided to give this place a try. My room had a kitchen in it (I'm not sure if that is all the rooms or not). It was excellent and a short distance from downtown. I was there for 3 days and everyone was very friendly. Breakfast was complimentary and was okay. The breakfast lady who was there was extremely helpful. She was able to get me printed direction to the French Quarter for my wife and I. I had a great time and will be back.More</t>
   </si>
   <si>
     <t>Hotel_Name</t>
@@ -561,6 +2122,4603 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L11" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L12" t="s">
+        <v>93</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>94</v>
+      </c>
+      <c r="O12" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" t="s">
+        <v>91</v>
+      </c>
+      <c r="K13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L13" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>94</v>
+      </c>
+      <c r="O13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" t="s">
+        <v>103</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>104</v>
+      </c>
+      <c r="O14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>107</v>
+      </c>
+      <c r="J15" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" t="s">
+        <v>109</v>
+      </c>
+      <c r="L15" t="s">
+        <v>110</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>104</v>
+      </c>
+      <c r="O15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>113</v>
+      </c>
+      <c r="J16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16" t="s">
+        <v>115</v>
+      </c>
+      <c r="L16" t="s">
+        <v>116</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>104</v>
+      </c>
+      <c r="O16" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" t="s">
+        <v>120</v>
+      </c>
+      <c r="L17" t="s">
+        <v>121</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>104</v>
+      </c>
+      <c r="O17" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>123</v>
+      </c>
+      <c r="J18" t="s">
+        <v>124</v>
+      </c>
+      <c r="K18" t="s">
+        <v>125</v>
+      </c>
+      <c r="L18" t="s">
+        <v>126</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>94</v>
+      </c>
+      <c r="O18" t="s">
+        <v>64</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>129</v>
+      </c>
+      <c r="J19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K19" t="s">
+        <v>131</v>
+      </c>
+      <c r="L19" t="s">
+        <v>132</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>94</v>
+      </c>
+      <c r="O19" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>135</v>
+      </c>
+      <c r="J20" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" t="s">
+        <v>138</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>139</v>
+      </c>
+      <c r="O20" t="s">
+        <v>34</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>141</v>
+      </c>
+      <c r="J21" t="s">
+        <v>142</v>
+      </c>
+      <c r="K21" t="s">
+        <v>143</v>
+      </c>
+      <c r="L21" t="s">
+        <v>144</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>146</v>
+      </c>
+      <c r="J22" t="s">
+        <v>147</v>
+      </c>
+      <c r="K22" t="s">
+        <v>148</v>
+      </c>
+      <c r="L22" t="s">
+        <v>149</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>150</v>
+      </c>
+      <c r="O22" t="s">
+        <v>34</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>153</v>
+      </c>
+      <c r="J23" t="s">
+        <v>154</v>
+      </c>
+      <c r="K23" t="s">
+        <v>155</v>
+      </c>
+      <c r="L23" t="s">
+        <v>156</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>150</v>
+      </c>
+      <c r="O23" t="s">
+        <v>34</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>159</v>
+      </c>
+      <c r="J24" t="s">
+        <v>160</v>
+      </c>
+      <c r="K24" t="s">
+        <v>161</v>
+      </c>
+      <c r="L24" t="s">
+        <v>162</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>163</v>
+      </c>
+      <c r="O24" t="s">
+        <v>34</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>165</v>
+      </c>
+      <c r="J25" t="s">
+        <v>166</v>
+      </c>
+      <c r="K25" t="s">
+        <v>167</v>
+      </c>
+      <c r="L25" t="s">
+        <v>168</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>169</v>
+      </c>
+      <c r="O25" t="s">
+        <v>34</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>170</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>171</v>
+      </c>
+      <c r="J26" t="s">
+        <v>172</v>
+      </c>
+      <c r="K26" t="s">
+        <v>173</v>
+      </c>
+      <c r="L26" t="s">
+        <v>174</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>175</v>
+      </c>
+      <c r="O26" t="s">
+        <v>34</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>177</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>178</v>
+      </c>
+      <c r="J27" t="s">
+        <v>179</v>
+      </c>
+      <c r="K27" t="s">
+        <v>180</v>
+      </c>
+      <c r="L27" t="s">
+        <v>181</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>175</v>
+      </c>
+      <c r="O27" t="s">
+        <v>70</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>182</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>183</v>
+      </c>
+      <c r="J28" t="s">
+        <v>184</v>
+      </c>
+      <c r="K28" t="s">
+        <v>185</v>
+      </c>
+      <c r="L28" t="s">
+        <v>186</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>187</v>
+      </c>
+      <c r="O28" t="s">
+        <v>34</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>189</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>190</v>
+      </c>
+      <c r="J29" t="s">
+        <v>191</v>
+      </c>
+      <c r="K29" t="s">
+        <v>192</v>
+      </c>
+      <c r="L29" t="s">
+        <v>193</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>175</v>
+      </c>
+      <c r="O29" t="s">
+        <v>34</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>194</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>195</v>
+      </c>
+      <c r="J30" t="s">
+        <v>196</v>
+      </c>
+      <c r="K30" t="s">
+        <v>197</v>
+      </c>
+      <c r="L30" t="s">
+        <v>198</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>199</v>
+      </c>
+      <c r="O30" t="s">
+        <v>64</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>200</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>201</v>
+      </c>
+      <c r="J31" t="s">
+        <v>202</v>
+      </c>
+      <c r="K31" t="s">
+        <v>203</v>
+      </c>
+      <c r="L31" t="s">
+        <v>204</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>187</v>
+      </c>
+      <c r="O31" t="s">
+        <v>205</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>208</v>
+      </c>
+      <c r="J32" t="s">
+        <v>209</v>
+      </c>
+      <c r="K32" t="s">
+        <v>210</v>
+      </c>
+      <c r="L32" t="s">
+        <v>211</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>187</v>
+      </c>
+      <c r="O32" t="s">
+        <v>205</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>212</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>213</v>
+      </c>
+      <c r="J33" t="s">
+        <v>214</v>
+      </c>
+      <c r="K33" t="s">
+        <v>215</v>
+      </c>
+      <c r="L33" t="s">
+        <v>216</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>187</v>
+      </c>
+      <c r="O33" t="s">
+        <v>34</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>217</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>218</v>
+      </c>
+      <c r="J34" t="s">
+        <v>219</v>
+      </c>
+      <c r="K34" t="s">
+        <v>220</v>
+      </c>
+      <c r="L34" t="s">
+        <v>221</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>222</v>
+      </c>
+      <c r="O34" t="s">
+        <v>34</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>223</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>224</v>
+      </c>
+      <c r="J35" t="s">
+        <v>225</v>
+      </c>
+      <c r="K35" t="s">
+        <v>226</v>
+      </c>
+      <c r="L35" t="s">
+        <v>227</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>228</v>
+      </c>
+      <c r="O35" t="s">
+        <v>70</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>229</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>230</v>
+      </c>
+      <c r="J36" t="s">
+        <v>231</v>
+      </c>
+      <c r="K36" t="s">
+        <v>232</v>
+      </c>
+      <c r="L36" t="s">
+        <v>233</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>199</v>
+      </c>
+      <c r="O36" t="s">
+        <v>70</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>234</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>235</v>
+      </c>
+      <c r="J37" t="s">
+        <v>236</v>
+      </c>
+      <c r="K37" t="s">
+        <v>237</v>
+      </c>
+      <c r="L37" t="s">
+        <v>238</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>239</v>
+      </c>
+      <c r="O37" t="s">
+        <v>34</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>241</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>242</v>
+      </c>
+      <c r="J38" t="s">
+        <v>243</v>
+      </c>
+      <c r="K38" t="s">
+        <v>244</v>
+      </c>
+      <c r="L38" t="s">
+        <v>245</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>239</v>
+      </c>
+      <c r="O38" t="s">
+        <v>34</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>246</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>247</v>
+      </c>
+      <c r="J39" t="s">
+        <v>248</v>
+      </c>
+      <c r="K39" t="s">
+        <v>249</v>
+      </c>
+      <c r="L39" t="s">
+        <v>250</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>239</v>
+      </c>
+      <c r="O39" t="s">
+        <v>34</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>251</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>252</v>
+      </c>
+      <c r="J40" t="s">
+        <v>253</v>
+      </c>
+      <c r="K40" t="s">
+        <v>254</v>
+      </c>
+      <c r="L40" t="s">
+        <v>255</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>199</v>
+      </c>
+      <c r="O40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>256</v>
+      </c>
+      <c r="X40" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>259</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>260</v>
+      </c>
+      <c r="J41" t="s">
+        <v>261</v>
+      </c>
+      <c r="K41" t="s">
+        <v>262</v>
+      </c>
+      <c r="L41" t="s">
+        <v>263</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>199</v>
+      </c>
+      <c r="O41" t="s">
+        <v>34</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>256</v>
+      </c>
+      <c r="X41" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>265</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>266</v>
+      </c>
+      <c r="J42" t="s">
+        <v>267</v>
+      </c>
+      <c r="K42" t="s">
+        <v>268</v>
+      </c>
+      <c r="L42" t="s">
+        <v>269</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>270</v>
+      </c>
+      <c r="O42" t="s">
+        <v>70</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>271</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>272</v>
+      </c>
+      <c r="J43" t="s">
+        <v>273</v>
+      </c>
+      <c r="K43" t="s">
+        <v>274</v>
+      </c>
+      <c r="L43" t="s">
+        <v>275</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>276</v>
+      </c>
+      <c r="O43" t="s">
+        <v>64</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>277</v>
+      </c>
+      <c r="X43" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>280</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s">
+        <v>281</v>
+      </c>
+      <c r="J44" t="s">
+        <v>282</v>
+      </c>
+      <c r="K44" t="s">
+        <v>283</v>
+      </c>
+      <c r="L44" t="s">
+        <v>284</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>285</v>
+      </c>
+      <c r="O44" t="s">
+        <v>82</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>287</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s">
+        <v>288</v>
+      </c>
+      <c r="J45" t="s">
+        <v>289</v>
+      </c>
+      <c r="K45" t="s">
+        <v>290</v>
+      </c>
+      <c r="L45" t="s">
+        <v>291</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>276</v>
+      </c>
+      <c r="O45" t="s">
+        <v>70</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>292</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s">
+        <v>293</v>
+      </c>
+      <c r="J46" t="s">
+        <v>294</v>
+      </c>
+      <c r="K46" t="s">
+        <v>295</v>
+      </c>
+      <c r="L46" t="s">
+        <v>296</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>276</v>
+      </c>
+      <c r="O46" t="s">
+        <v>34</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>298</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>299</v>
+      </c>
+      <c r="J47" t="s">
+        <v>300</v>
+      </c>
+      <c r="K47" t="s">
+        <v>301</v>
+      </c>
+      <c r="L47" t="s">
+        <v>302</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>276</v>
+      </c>
+      <c r="O47" t="s">
+        <v>64</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" t="s">
+        <v>303</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s">
+        <v>304</v>
+      </c>
+      <c r="J48" t="s">
+        <v>305</v>
+      </c>
+      <c r="K48" t="s">
+        <v>306</v>
+      </c>
+      <c r="L48" t="s">
+        <v>307</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>276</v>
+      </c>
+      <c r="O48" t="s">
+        <v>64</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>308</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s">
+        <v>309</v>
+      </c>
+      <c r="J49" t="s">
+        <v>310</v>
+      </c>
+      <c r="K49" t="s">
+        <v>311</v>
+      </c>
+      <c r="L49" t="s">
+        <v>312</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>276</v>
+      </c>
+      <c r="O49" t="s">
+        <v>64</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" t="s">
+        <v>313</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s">
+        <v>314</v>
+      </c>
+      <c r="J50" t="s">
+        <v>315</v>
+      </c>
+      <c r="K50" t="s">
+        <v>316</v>
+      </c>
+      <c r="L50" t="s">
+        <v>317</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>318</v>
+      </c>
+      <c r="O50" t="s">
+        <v>82</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" t="s">
+        <v>319</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" t="s">
+        <v>320</v>
+      </c>
+      <c r="J51" t="s">
+        <v>321</v>
+      </c>
+      <c r="K51" t="s">
+        <v>322</v>
+      </c>
+      <c r="L51" t="s">
+        <v>323</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>318</v>
+      </c>
+      <c r="O51" t="s">
+        <v>34</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" t="s">
+        <v>325</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" t="s">
+        <v>326</v>
+      </c>
+      <c r="J52" t="s">
+        <v>327</v>
+      </c>
+      <c r="K52" t="s">
+        <v>328</v>
+      </c>
+      <c r="L52" t="s">
+        <v>329</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>330</v>
+      </c>
+      <c r="O52" t="s">
+        <v>205</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>331</v>
+      </c>
+      <c r="X52" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" t="s">
+        <v>334</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" t="s">
+        <v>28</v>
+      </c>
+      <c r="I53" t="s">
+        <v>335</v>
+      </c>
+      <c r="J53" t="s">
+        <v>327</v>
+      </c>
+      <c r="K53" t="s">
+        <v>336</v>
+      </c>
+      <c r="L53" t="s">
+        <v>337</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>330</v>
+      </c>
+      <c r="O53" t="s">
+        <v>34</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>331</v>
+      </c>
+      <c r="X53" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" t="s">
+        <v>339</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" t="s">
+        <v>340</v>
+      </c>
+      <c r="J54" t="s">
+        <v>341</v>
+      </c>
+      <c r="K54" t="s">
+        <v>342</v>
+      </c>
+      <c r="L54" t="s">
+        <v>343</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>344</v>
+      </c>
+      <c r="O54" t="s">
+        <v>64</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>345</v>
+      </c>
+      <c r="X54" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" t="s">
+        <v>348</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" t="s">
+        <v>349</v>
+      </c>
+      <c r="J55" t="s">
+        <v>350</v>
+      </c>
+      <c r="K55" t="s">
+        <v>351</v>
+      </c>
+      <c r="L55" t="s">
+        <v>352</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>344</v>
+      </c>
+      <c r="O55" t="s">
+        <v>64</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>353</v>
+      </c>
+      <c r="X55" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" t="s">
+        <v>356</v>
+      </c>
+      <c r="G56" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" t="s">
+        <v>357</v>
+      </c>
+      <c r="J56" t="s">
+        <v>358</v>
+      </c>
+      <c r="K56" t="s">
+        <v>359</v>
+      </c>
+      <c r="L56" t="s">
+        <v>360</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>344</v>
+      </c>
+      <c r="O56" t="s">
+        <v>64</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>353</v>
+      </c>
+      <c r="X56" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" t="s">
+        <v>362</v>
+      </c>
+      <c r="G57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" t="s">
+        <v>28</v>
+      </c>
+      <c r="I57" t="s">
+        <v>363</v>
+      </c>
+      <c r="J57" t="s">
+        <v>364</v>
+      </c>
+      <c r="K57" t="s">
+        <v>365</v>
+      </c>
+      <c r="L57" t="s">
+        <v>366</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>344</v>
+      </c>
+      <c r="O57" t="s">
+        <v>82</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>367</v>
+      </c>
+      <c r="X57" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>370</v>
+      </c>
+      <c r="G58" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" t="s">
+        <v>28</v>
+      </c>
+      <c r="I58" t="s">
+        <v>371</v>
+      </c>
+      <c r="J58" t="s">
+        <v>372</v>
+      </c>
+      <c r="K58" t="s">
+        <v>373</v>
+      </c>
+      <c r="L58" t="s">
+        <v>374</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>344</v>
+      </c>
+      <c r="O58" t="s">
+        <v>34</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>367</v>
+      </c>
+      <c r="X58" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" t="s">
+        <v>376</v>
+      </c>
+      <c r="G59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" t="s">
+        <v>377</v>
+      </c>
+      <c r="J59" t="s">
+        <v>378</v>
+      </c>
+      <c r="K59" t="s">
+        <v>379</v>
+      </c>
+      <c r="L59" t="s">
+        <v>380</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>381</v>
+      </c>
+      <c r="O59" t="s">
+        <v>82</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>382</v>
+      </c>
+      <c r="X59" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" t="s">
+        <v>385</v>
+      </c>
+      <c r="G60" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" t="s">
+        <v>386</v>
+      </c>
+      <c r="J60" t="s">
+        <v>387</v>
+      </c>
+      <c r="K60" t="s">
+        <v>388</v>
+      </c>
+      <c r="L60" t="s">
+        <v>389</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>390</v>
+      </c>
+      <c r="O60" t="s">
+        <v>205</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>391</v>
+      </c>
+      <c r="X60" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" t="s">
+        <v>394</v>
+      </c>
+      <c r="G61" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" t="s">
+        <v>28</v>
+      </c>
+      <c r="I61" t="s">
+        <v>395</v>
+      </c>
+      <c r="J61" t="s">
+        <v>396</v>
+      </c>
+      <c r="K61" t="s">
+        <v>397</v>
+      </c>
+      <c r="L61" t="s">
+        <v>398</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>390</v>
+      </c>
+      <c r="O61" t="s">
+        <v>34</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>399</v>
+      </c>
+      <c r="X61" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" t="s">
+        <v>402</v>
+      </c>
+      <c r="G62" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" t="s">
+        <v>403</v>
+      </c>
+      <c r="J62" t="s">
+        <v>404</v>
+      </c>
+      <c r="K62" t="s">
+        <v>405</v>
+      </c>
+      <c r="L62" t="s">
+        <v>406</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>407</v>
+      </c>
+      <c r="O62" t="s">
+        <v>34</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>408</v>
+      </c>
+      <c r="X62" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" t="s">
+        <v>411</v>
+      </c>
+      <c r="G63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" t="s">
+        <v>412</v>
+      </c>
+      <c r="J63" t="s">
+        <v>413</v>
+      </c>
+      <c r="K63" t="s">
+        <v>414</v>
+      </c>
+      <c r="L63" t="s">
+        <v>415</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>416</v>
+      </c>
+      <c r="X63" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" t="s">
+        <v>419</v>
+      </c>
+      <c r="G64" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" t="s">
+        <v>28</v>
+      </c>
+      <c r="I64" t="s">
+        <v>420</v>
+      </c>
+      <c r="J64" t="s">
+        <v>421</v>
+      </c>
+      <c r="K64" t="s">
+        <v>422</v>
+      </c>
+      <c r="L64" t="s">
+        <v>423</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>407</v>
+      </c>
+      <c r="O64" t="s">
+        <v>70</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>424</v>
+      </c>
+      <c r="X64" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" t="s">
+        <v>427</v>
+      </c>
+      <c r="G65" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65" t="s">
+        <v>428</v>
+      </c>
+      <c r="J65" t="s">
+        <v>429</v>
+      </c>
+      <c r="K65" t="s">
+        <v>430</v>
+      </c>
+      <c r="L65" t="s">
+        <v>431</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>432</v>
+      </c>
+      <c r="O65" t="s">
+        <v>34</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>433</v>
+      </c>
+      <c r="X65" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" t="s">
+        <v>436</v>
+      </c>
+      <c r="G66" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" t="s">
+        <v>437</v>
+      </c>
+      <c r="J66" t="s">
+        <v>438</v>
+      </c>
+      <c r="K66" t="s">
+        <v>439</v>
+      </c>
+      <c r="L66" t="s">
+        <v>440</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>432</v>
+      </c>
+      <c r="O66" t="s">
+        <v>34</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>2</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>441</v>
+      </c>
+      <c r="X66" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" t="s">
+        <v>444</v>
+      </c>
+      <c r="G67" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" t="s">
+        <v>445</v>
+      </c>
+      <c r="J67" t="s">
+        <v>446</v>
+      </c>
+      <c r="K67" t="s">
+        <v>447</v>
+      </c>
+      <c r="L67" t="s">
+        <v>448</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>432</v>
+      </c>
+      <c r="O67" t="s">
+        <v>64</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>449</v>
+      </c>
+      <c r="X67" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" t="s">
+        <v>452</v>
+      </c>
+      <c r="G68" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" t="s">
+        <v>28</v>
+      </c>
+      <c r="I68" t="s">
+        <v>453</v>
+      </c>
+      <c r="J68" t="s">
+        <v>454</v>
+      </c>
+      <c r="K68" t="s">
+        <v>455</v>
+      </c>
+      <c r="L68" t="s">
+        <v>456</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>457</v>
+      </c>
+      <c r="O68" t="s">
+        <v>64</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>458</v>
+      </c>
+      <c r="X68" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" t="s">
+        <v>461</v>
+      </c>
+      <c r="G69" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69" t="s">
+        <v>28</v>
+      </c>
+      <c r="I69" t="s">
+        <v>462</v>
+      </c>
+      <c r="J69" t="s">
+        <v>463</v>
+      </c>
+      <c r="K69" t="s">
+        <v>464</v>
+      </c>
+      <c r="L69" t="s">
+        <v>465</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>457</v>
+      </c>
+      <c r="O69" t="s">
+        <v>64</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>466</v>
+      </c>
+      <c r="X69" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F70" t="s">
+        <v>469</v>
+      </c>
+      <c r="G70" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" t="s">
+        <v>28</v>
+      </c>
+      <c r="I70" t="s">
+        <v>470</v>
+      </c>
+      <c r="J70" t="s">
+        <v>471</v>
+      </c>
+      <c r="K70" t="s">
+        <v>472</v>
+      </c>
+      <c r="L70" t="s">
+        <v>473</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>474</v>
+      </c>
+      <c r="O70" t="s">
+        <v>64</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>475</v>
+      </c>
+      <c r="X70" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" t="s">
+        <v>478</v>
+      </c>
+      <c r="G71" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" t="s">
+        <v>28</v>
+      </c>
+      <c r="I71" t="s">
+        <v>479</v>
+      </c>
+      <c r="J71" t="s">
+        <v>480</v>
+      </c>
+      <c r="K71" t="s">
+        <v>481</v>
+      </c>
+      <c r="L71" t="s">
+        <v>482</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>474</v>
+      </c>
+      <c r="O71" t="s">
+        <v>70</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>483</v>
+      </c>
+      <c r="X71" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" t="s">
+        <v>486</v>
+      </c>
+      <c r="G72" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" t="s">
+        <v>28</v>
+      </c>
+      <c r="I72" t="s">
+        <v>487</v>
+      </c>
+      <c r="J72" t="s">
+        <v>488</v>
+      </c>
+      <c r="K72" t="s">
+        <v>489</v>
+      </c>
+      <c r="L72" t="s">
+        <v>490</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>491</v>
+      </c>
+      <c r="O72" t="s">
+        <v>70</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>492</v>
+      </c>
+      <c r="X72" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" t="s">
+        <v>495</v>
+      </c>
+      <c r="G73" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" t="s">
+        <v>28</v>
+      </c>
+      <c r="I73" t="s">
+        <v>496</v>
+      </c>
+      <c r="J73" t="s">
+        <v>497</v>
+      </c>
+      <c r="K73" t="s">
+        <v>498</v>
+      </c>
+      <c r="L73" t="s">
+        <v>499</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>500</v>
+      </c>
+      <c r="O73" t="s">
+        <v>64</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>2</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>501</v>
+      </c>
+      <c r="X73" t="s">
+        <v>502</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" t="s">
+        <v>504</v>
+      </c>
+      <c r="G74" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74" t="s">
+        <v>28</v>
+      </c>
+      <c r="I74" t="s">
+        <v>505</v>
+      </c>
+      <c r="J74" t="s">
+        <v>506</v>
+      </c>
+      <c r="K74" t="s">
+        <v>507</v>
+      </c>
+      <c r="L74" t="s">
+        <v>508</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>500</v>
+      </c>
+      <c r="O74" t="s">
+        <v>34</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>509</v>
+      </c>
+      <c r="X74" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" t="s">
+        <v>512</v>
+      </c>
+      <c r="G75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75" t="s">
+        <v>513</v>
+      </c>
+      <c r="J75" t="s">
+        <v>514</v>
+      </c>
+      <c r="K75" t="s">
+        <v>515</v>
+      </c>
+      <c r="L75" t="s">
+        <v>516</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>500</v>
+      </c>
+      <c r="O75" t="s">
+        <v>70</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>517</v>
+      </c>
+      <c r="X75" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>64264</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" t="s">
+        <v>520</v>
+      </c>
+      <c r="G76" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" t="s">
+        <v>28</v>
+      </c>
+      <c r="I76" t="s">
+        <v>521</v>
+      </c>
+      <c r="J76" t="s">
+        <v>522</v>
+      </c>
+      <c r="K76" t="s">
+        <v>523</v>
+      </c>
+      <c r="L76" t="s">
+        <v>524</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>491</v>
+      </c>
+      <c r="O76" t="s">
+        <v>34</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>517</v>
+      </c>
+      <c r="X76" t="s">
+        <v>518</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>525</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -583,31 +6741,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>526</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>527</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>528</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>529</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>530</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>531</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>532</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>533</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2">
@@ -615,31 +6773,31 @@
         <v>64264</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>535</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>536</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>537</v>
       </c>
       <c r="E2" t="n">
         <v>70058</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>538</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>539</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>540</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>541</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
